--- a/input/input_big.xlsx
+++ b/input/input_big.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESchr\workspace\uni\ATIS3\Single_Project\ATIES3_single_project_ES\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CB6263-068E-46F5-AC91-950C3B2268BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9998EA2F-EFFE-4455-9EB4-C254A5FF9972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="5" xr2:uid="{F41D6B2C-A29F-4016-AF80-C7BE5C33C0CD}"/>
+    <workbookView xWindow="345" yWindow="9015" windowWidth="7635" windowHeight="4650" xr2:uid="{F41D6B2C-A29F-4016-AF80-C7BE5C33C0CD}"/>
   </bookViews>
   <sheets>
     <sheet name="bilateral_contract_data" sheetId="1" r:id="rId1"/>
@@ -784,12 +784,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326D2C6A-7C1E-476A-9A89-D087E262AE4F}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -885,7 +887,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>55.4</v>
+        <v>48.5</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -914,7 +916,7 @@
         <v>26</v>
       </c>
       <c r="B5">
-        <v>64.099999999999994</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -943,7 +945,7 @@
         <v>27</v>
       </c>
       <c r="B6">
-        <v>45.9</v>
+        <v>49.5</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -972,7 +974,7 @@
         <v>28</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>40</v>
@@ -1001,7 +1003,7 @@
         <v>118</v>
       </c>
       <c r="B8">
-        <v>56.7</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -1030,7 +1032,7 @@
         <v>119</v>
       </c>
       <c r="B9">
-        <v>63.2</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>40</v>
@@ -1180,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE0D819-36A6-4670-8860-D1C2902FF7CD}">
   <dimension ref="A1:CG2"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="B1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,100 +1462,100 @@
         <v>275</v>
       </c>
       <c r="F2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G2">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="H2">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="I2">
-        <v>250.42857142857099</v>
+        <v>275</v>
       </c>
       <c r="J2">
-        <v>254.5</v>
+        <v>200</v>
       </c>
       <c r="K2">
-        <v>258.57142857142901</v>
+        <v>250</v>
       </c>
       <c r="L2">
-        <v>262.642857142857</v>
+        <v>225</v>
       </c>
       <c r="M2">
-        <v>266.71428571428601</v>
+        <v>275</v>
       </c>
       <c r="N2">
-        <v>270.78571428571399</v>
+        <v>200</v>
       </c>
       <c r="O2">
+        <v>250</v>
+      </c>
+      <c r="P2">
+        <v>225</v>
+      </c>
+      <c r="Q2">
+        <v>275</v>
+      </c>
+      <c r="R2">
         <v>200</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <v>250</v>
       </c>
-      <c r="Q2">
+      <c r="T2">
         <v>225</v>
       </c>
-      <c r="R2">
+      <c r="U2">
         <v>275</v>
       </c>
-      <c r="S2">
-        <v>199</v>
-      </c>
-      <c r="T2">
-        <v>230</v>
-      </c>
-      <c r="U2">
-        <v>260</v>
-      </c>
       <c r="V2">
-        <v>250.42857142857099</v>
+        <v>200</v>
       </c>
       <c r="W2">
-        <v>254.5</v>
+        <v>250</v>
       </c>
       <c r="X2">
-        <v>258.57142857142901</v>
+        <v>225</v>
       </c>
       <c r="Y2">
-        <v>262.642857142857</v>
+        <v>275</v>
       </c>
       <c r="Z2">
-        <v>266.71428571428601</v>
+        <v>200</v>
       </c>
       <c r="AA2">
-        <v>257.02428571428601</v>
+        <v>250</v>
       </c>
       <c r="AB2">
-        <v>257.92</v>
+        <v>225</v>
       </c>
       <c r="AC2">
-        <v>258.81571428571402</v>
+        <v>275</v>
       </c>
       <c r="AD2">
-        <v>259.711428571429</v>
+        <v>200</v>
       </c>
       <c r="AE2">
-        <v>260.607142857143</v>
+        <v>250</v>
       </c>
       <c r="AF2">
-        <v>261.50285714285701</v>
+        <v>225</v>
       </c>
       <c r="AG2">
-        <v>262.39857142857102</v>
+        <v>275</v>
       </c>
       <c r="AH2">
-        <v>263.29428571428599</v>
+        <v>200</v>
       </c>
       <c r="AI2">
-        <v>264.19</v>
+        <v>250</v>
       </c>
       <c r="AJ2">
-        <v>265.085714285714</v>
+        <v>225</v>
       </c>
       <c r="AK2">
-        <v>265.98142857142898</v>
+        <v>275</v>
       </c>
       <c r="AL2">
         <v>200</v>
@@ -1568,136 +1570,136 @@
         <v>275</v>
       </c>
       <c r="AP2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AQ2">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AR2">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="AS2">
-        <v>250.42857142857099</v>
+        <v>275</v>
       </c>
       <c r="AT2">
-        <v>254.5</v>
+        <v>200</v>
       </c>
       <c r="AU2">
-        <v>258.57142857142901</v>
+        <v>250</v>
       </c>
       <c r="AV2">
-        <v>262.642857142857</v>
+        <v>225</v>
       </c>
       <c r="AW2">
-        <v>266.71428571428601</v>
+        <v>275</v>
       </c>
       <c r="AX2">
-        <v>270.78571428571399</v>
+        <v>200</v>
       </c>
       <c r="AY2">
+        <v>250</v>
+      </c>
+      <c r="AZ2">
+        <v>225</v>
+      </c>
+      <c r="BA2">
+        <v>275</v>
+      </c>
+      <c r="BB2">
         <v>200</v>
       </c>
-      <c r="AZ2">
+      <c r="BC2">
         <v>250</v>
       </c>
-      <c r="BA2">
+      <c r="BD2">
         <v>225</v>
       </c>
-      <c r="BB2">
+      <c r="BE2">
         <v>275</v>
       </c>
-      <c r="BC2">
-        <v>199</v>
-      </c>
-      <c r="BD2">
-        <v>230</v>
-      </c>
-      <c r="BE2">
-        <v>260</v>
-      </c>
       <c r="BF2">
-        <v>250.42857142857099</v>
+        <v>200</v>
       </c>
       <c r="BG2">
-        <v>254.5</v>
+        <v>250</v>
       </c>
       <c r="BH2">
-        <v>258.57142857142901</v>
+        <v>225</v>
       </c>
       <c r="BI2">
-        <v>262.642857142857</v>
+        <v>275</v>
       </c>
       <c r="BJ2">
-        <v>251.14192251815999</v>
+        <v>200</v>
       </c>
       <c r="BK2">
-        <v>251.245582741238</v>
+        <v>250</v>
       </c>
       <c r="BL2">
-        <v>251.34924296431601</v>
+        <v>225</v>
       </c>
       <c r="BM2">
-        <v>251.45290318739299</v>
+        <v>275</v>
       </c>
       <c r="BN2">
-        <v>251.556563410471</v>
+        <v>200</v>
       </c>
       <c r="BO2">
-        <v>251.66022363354901</v>
+        <v>250</v>
       </c>
       <c r="BP2">
-        <v>251.76388385662699</v>
+        <v>225</v>
       </c>
       <c r="BQ2">
-        <v>251.867544079705</v>
+        <v>275</v>
       </c>
       <c r="BR2">
-        <v>251.97120430278301</v>
+        <v>200</v>
       </c>
       <c r="BS2">
-        <v>252.07486452585999</v>
+        <v>250</v>
       </c>
       <c r="BT2">
-        <v>252.178524748938</v>
+        <v>225</v>
       </c>
       <c r="BU2">
-        <v>252.28218497201601</v>
+        <v>275</v>
       </c>
       <c r="BV2">
-        <v>252.38584519509399</v>
+        <v>200</v>
       </c>
       <c r="BW2">
-        <v>252.489505418172</v>
+        <v>250</v>
       </c>
       <c r="BX2">
-        <v>252.59316564125001</v>
+        <v>225</v>
       </c>
       <c r="BY2">
-        <v>252.696825864327</v>
+        <v>275</v>
       </c>
       <c r="BZ2">
-        <v>252.80048608740501</v>
+        <v>200</v>
       </c>
       <c r="CA2">
-        <v>252.90414631048299</v>
+        <v>250</v>
       </c>
       <c r="CB2">
-        <v>253.00780653356099</v>
+        <v>225</v>
       </c>
       <c r="CC2">
-        <v>253.111466756639</v>
+        <v>275</v>
       </c>
       <c r="CD2">
-        <v>253.21512697971701</v>
+        <v>200</v>
       </c>
       <c r="CE2">
-        <v>253.318787202794</v>
+        <v>250</v>
       </c>
       <c r="CF2">
-        <v>253.42244742587201</v>
+        <v>225</v>
       </c>
       <c r="CG2">
-        <v>253.52610764894999</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -6095,7 +6097,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6382,7 +6384,7 @@
   <dimension ref="A1:CG16"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="CG2" sqref="CG2:CG16"/>
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8517,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -10512,7 +10514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4D9919-2431-4026-8FD6-F5920B77E3EE}">
   <dimension ref="A1:CG17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>

--- a/input/input_big.xlsx
+++ b/input/input_big.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESchr\workspace\uni\ATIS3\Single_Project\ATIES3_single_project_ES\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9998EA2F-EFFE-4455-9EB4-C254A5FF9972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D584887A-112C-4A53-9E41-6FE119AA8240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="9015" windowWidth="7635" windowHeight="4650" xr2:uid="{F41D6B2C-A29F-4016-AF80-C7BE5C33C0CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{F41D6B2C-A29F-4016-AF80-C7BE5C33C0CD}"/>
   </bookViews>
   <sheets>
     <sheet name="bilateral_contract_data" sheetId="1" r:id="rId1"/>
@@ -784,7 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326D2C6A-7C1E-476A-9A89-D087E262AE4F}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1711,8 +1711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD436EB6-D80F-424D-BA0F-03D2C90350F3}">
   <dimension ref="A1:CG17"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="BM1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="CC19" sqref="CC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,61 +1982,61 @@
         <v>44</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F2">
         <v>44</v>
       </c>
       <c r="G2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J2">
         <v>44</v>
       </c>
       <c r="K2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N2">
         <v>44</v>
       </c>
       <c r="O2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R2">
         <v>44</v>
       </c>
       <c r="S2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V2">
         <v>44</v>
@@ -2239,61 +2239,61 @@
         <v>44</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F3">
         <v>44</v>
       </c>
       <c r="G3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J3">
         <v>44</v>
       </c>
       <c r="K3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N3">
         <v>44</v>
       </c>
       <c r="O3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R3">
         <v>44</v>
       </c>
       <c r="S3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V3">
         <v>44</v>
@@ -2496,61 +2496,61 @@
         <v>44</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F4">
         <v>44</v>
       </c>
       <c r="G4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J4">
         <v>44</v>
       </c>
       <c r="K4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N4">
         <v>44</v>
       </c>
       <c r="O4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R4">
         <v>44</v>
       </c>
       <c r="S4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V4">
         <v>44</v>
@@ -2753,61 +2753,61 @@
         <v>44</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F5">
         <v>44</v>
       </c>
       <c r="G5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I5">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J5">
         <v>44</v>
       </c>
       <c r="K5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N5">
         <v>44</v>
       </c>
       <c r="O5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q5">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R5">
         <v>44</v>
       </c>
       <c r="S5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U5">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V5">
         <v>44</v>
@@ -3010,61 +3010,61 @@
         <v>44</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F6">
         <v>44</v>
       </c>
       <c r="G6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I6">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J6">
         <v>44</v>
       </c>
       <c r="K6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N6">
         <v>44</v>
       </c>
       <c r="O6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P6">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q6">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R6">
         <v>44</v>
       </c>
       <c r="S6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T6">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U6">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V6">
         <v>44</v>
@@ -3267,61 +3267,61 @@
         <v>44</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F7">
         <v>44</v>
       </c>
       <c r="G7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I7">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J7">
         <v>44</v>
       </c>
       <c r="K7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N7">
         <v>44</v>
       </c>
       <c r="O7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q7">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R7">
         <v>44</v>
       </c>
       <c r="S7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U7">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V7">
         <v>44</v>
@@ -3524,61 +3524,61 @@
         <v>44</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F8">
         <v>44</v>
       </c>
       <c r="G8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J8">
         <v>44</v>
       </c>
       <c r="K8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N8">
         <v>44</v>
       </c>
       <c r="O8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R8">
         <v>44</v>
       </c>
       <c r="S8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V8">
         <v>44</v>
@@ -3781,61 +3781,61 @@
         <v>44</v>
       </c>
       <c r="C9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F9">
         <v>44</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J9">
         <v>44</v>
       </c>
       <c r="K9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M9">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>44</v>
       </c>
       <c r="O9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q9">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R9">
         <v>44</v>
       </c>
       <c r="S9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U9">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V9">
         <v>44</v>
@@ -4038,61 +4038,61 @@
         <v>50</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10">
         <v>50</v>
       </c>
       <c r="G10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J10">
         <v>50</v>
       </c>
       <c r="K10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N10">
         <v>50</v>
       </c>
       <c r="O10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R10">
         <v>50</v>
       </c>
       <c r="S10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V10">
         <v>50</v>
@@ -4295,61 +4295,61 @@
         <v>50</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11">
         <v>50</v>
       </c>
       <c r="G11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J11">
         <v>50</v>
       </c>
       <c r="K11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N11">
         <v>50</v>
       </c>
       <c r="O11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R11">
         <v>50</v>
       </c>
       <c r="S11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V11">
         <v>50</v>
@@ -4552,61 +4552,61 @@
         <v>50</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F12">
         <v>50</v>
       </c>
       <c r="G12">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I12">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J12">
         <v>50</v>
       </c>
       <c r="K12">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L12">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M12">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N12">
         <v>50</v>
       </c>
       <c r="O12">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P12">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q12">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R12">
         <v>50</v>
       </c>
       <c r="S12">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T12">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U12">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V12">
         <v>50</v>
@@ -4809,61 +4809,61 @@
         <v>50</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F13">
         <v>50</v>
       </c>
       <c r="G13">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I13">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J13">
         <v>50</v>
       </c>
       <c r="K13">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M13">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N13">
         <v>50</v>
       </c>
       <c r="O13">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q13">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R13">
         <v>50</v>
       </c>
       <c r="S13">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T13">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U13">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V13">
         <v>50</v>
@@ -5066,61 +5066,61 @@
         <v>50</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F14">
         <v>50</v>
       </c>
       <c r="G14">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I14">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J14">
         <v>50</v>
       </c>
       <c r="K14">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L14">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M14">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N14">
         <v>50</v>
       </c>
       <c r="O14">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P14">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q14">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R14">
         <v>50</v>
       </c>
       <c r="S14">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T14">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U14">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V14">
         <v>50</v>
@@ -5323,61 +5323,61 @@
         <v>50</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F15">
         <v>50</v>
       </c>
       <c r="G15">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I15">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J15">
         <v>50</v>
       </c>
       <c r="K15">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L15">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M15">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N15">
         <v>50</v>
       </c>
       <c r="O15">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P15">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q15">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R15">
         <v>50</v>
       </c>
       <c r="S15">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T15">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U15">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V15">
         <v>50</v>
@@ -5580,61 +5580,61 @@
         <v>50</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F16">
         <v>50</v>
       </c>
       <c r="G16">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H16">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I16">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J16">
         <v>50</v>
       </c>
       <c r="K16">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N16">
         <v>50</v>
       </c>
       <c r="O16">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P16">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q16">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R16">
         <v>50</v>
       </c>
       <c r="S16">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T16">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U16">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V16">
         <v>50</v>
@@ -5837,61 +5837,61 @@
         <v>50</v>
       </c>
       <c r="C17">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F17">
         <v>50</v>
       </c>
       <c r="G17">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J17">
         <v>50</v>
       </c>
       <c r="K17">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N17">
         <v>50</v>
       </c>
       <c r="O17">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P17">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q17">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R17">
         <v>50</v>
       </c>
       <c r="S17">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T17">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U17">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V17">
         <v>50</v>
@@ -6026,61 +6026,61 @@
         <v>53</v>
       </c>
       <c r="BN17">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BO17">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BP17">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BQ17">
         <v>53</v>
       </c>
       <c r="BR17">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BS17">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BT17">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BU17">
         <v>53</v>
       </c>
       <c r="BV17">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BW17">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BX17">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BY17">
         <v>53</v>
       </c>
       <c r="BZ17">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="CA17">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="CB17">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="CC17">
         <v>53</v>
       </c>
       <c r="CD17">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="CE17">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="CF17">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="CG17">
         <v>53</v>

--- a/input/input_big.xlsx
+++ b/input/input_big.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESchr\workspace\uni\ATIS3\Single_Project\ATIES3_single_project_ES\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D584887A-112C-4A53-9E41-6FE119AA8240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCECE195-7638-4174-9268-6BAD2CD0DCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{F41D6B2C-A29F-4016-AF80-C7BE5C33C0CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{F41D6B2C-A29F-4016-AF80-C7BE5C33C0CD}"/>
   </bookViews>
   <sheets>
     <sheet name="bilateral_contract_data" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="160">
   <si>
     <t>Contract</t>
   </si>
@@ -425,6 +425,102 @@
   <si>
     <t>we4</t>
   </si>
+  <si>
+    <t>w17</t>
+  </si>
+  <si>
+    <t>w18</t>
+  </si>
+  <si>
+    <t>w19</t>
+  </si>
+  <si>
+    <t>w20</t>
+  </si>
+  <si>
+    <t>w21</t>
+  </si>
+  <si>
+    <t>w22</t>
+  </si>
+  <si>
+    <t>w23</t>
+  </si>
+  <si>
+    <t>w24</t>
+  </si>
+  <si>
+    <t>w25</t>
+  </si>
+  <si>
+    <t>w26</t>
+  </si>
+  <si>
+    <t>w27</t>
+  </si>
+  <si>
+    <t>w28</t>
+  </si>
+  <si>
+    <t>w29</t>
+  </si>
+  <si>
+    <t>w30</t>
+  </si>
+  <si>
+    <t>w31</t>
+  </si>
+  <si>
+    <t>w32</t>
+  </si>
+  <si>
+    <t>w33</t>
+  </si>
+  <si>
+    <t>w34</t>
+  </si>
+  <si>
+    <t>w35</t>
+  </si>
+  <si>
+    <t>w36</t>
+  </si>
+  <si>
+    <t>w37</t>
+  </si>
+  <si>
+    <t>w38</t>
+  </si>
+  <si>
+    <t>w39</t>
+  </si>
+  <si>
+    <t>w40</t>
+  </si>
+  <si>
+    <t>w41</t>
+  </si>
+  <si>
+    <t>w42</t>
+  </si>
+  <si>
+    <t>w43</t>
+  </si>
+  <si>
+    <t>w44</t>
+  </si>
+  <si>
+    <t>w45</t>
+  </si>
+  <si>
+    <t>w46</t>
+  </si>
+  <si>
+    <t>w47</t>
+  </si>
+  <si>
+    <t>w48</t>
+  </si>
 </sst>
 </file>
 
@@ -785,7 +881,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,7 +983,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>48.5</v>
+        <v>55.4</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -916,7 +1012,7 @@
         <v>26</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -945,7 +1041,7 @@
         <v>27</v>
       </c>
       <c r="B6">
-        <v>49.5</v>
+        <v>45.9</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -974,7 +1070,7 @@
         <v>28</v>
       </c>
       <c r="B7">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C7">
         <v>40</v>
@@ -1003,7 +1099,7 @@
         <v>118</v>
       </c>
       <c r="B8">
-        <v>49</v>
+        <v>56.7</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -1032,7 +1128,7 @@
         <v>119</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>63.2</v>
       </c>
       <c r="C9">
         <v>40</v>
@@ -1182,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE0D819-36A6-4670-8860-D1C2902FF7CD}">
   <dimension ref="A1:CG2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,256 +1546,256 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="C2">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="D2">
-        <v>225</v>
+        <v>2250</v>
       </c>
       <c r="E2">
-        <v>275</v>
+        <v>2750</v>
       </c>
       <c r="F2">
-        <v>200</v>
+        <v>2100</v>
       </c>
       <c r="G2">
-        <v>250</v>
+        <v>2140</v>
       </c>
       <c r="H2">
-        <v>225</v>
+        <v>2295</v>
       </c>
       <c r="I2">
-        <v>275</v>
+        <v>2000</v>
       </c>
       <c r="J2">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="K2">
-        <v>250</v>
+        <v>2250</v>
       </c>
       <c r="L2">
-        <v>225</v>
+        <v>2750</v>
       </c>
       <c r="M2">
-        <v>275</v>
+        <v>2100</v>
       </c>
       <c r="N2">
-        <v>200</v>
+        <v>2140</v>
       </c>
       <c r="O2">
-        <v>250</v>
+        <v>2295</v>
       </c>
       <c r="P2">
-        <v>225</v>
+        <v>2000</v>
       </c>
       <c r="Q2">
-        <v>275</v>
+        <v>2500</v>
       </c>
       <c r="R2">
-        <v>200</v>
+        <v>2250</v>
       </c>
       <c r="S2">
-        <v>250</v>
+        <v>2750</v>
       </c>
       <c r="T2">
-        <v>225</v>
+        <v>2100</v>
       </c>
       <c r="U2">
-        <v>275</v>
+        <v>2140</v>
       </c>
       <c r="V2">
-        <v>200</v>
+        <v>2295</v>
       </c>
       <c r="W2">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="X2">
-        <v>225</v>
+        <v>2500</v>
       </c>
       <c r="Y2">
-        <v>275</v>
+        <v>2250</v>
       </c>
       <c r="Z2">
-        <v>200</v>
+        <v>2750</v>
       </c>
       <c r="AA2">
-        <v>250</v>
+        <v>2100</v>
       </c>
       <c r="AB2">
-        <v>225</v>
+        <v>2140</v>
       </c>
       <c r="AC2">
-        <v>275</v>
+        <v>2295</v>
       </c>
       <c r="AD2">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="AE2">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="AF2">
-        <v>225</v>
+        <v>2250</v>
       </c>
       <c r="AG2">
-        <v>275</v>
+        <v>2750</v>
       </c>
       <c r="AH2">
-        <v>200</v>
+        <v>2100</v>
       </c>
       <c r="AI2">
-        <v>250</v>
+        <v>2140</v>
       </c>
       <c r="AJ2">
-        <v>225</v>
+        <v>2295</v>
       </c>
       <c r="AK2">
-        <v>275</v>
+        <v>2000</v>
       </c>
       <c r="AL2">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="AM2">
-        <v>250</v>
+        <v>2250</v>
       </c>
       <c r="AN2">
-        <v>225</v>
+        <v>2750</v>
       </c>
       <c r="AO2">
-        <v>275</v>
+        <v>2100</v>
       </c>
       <c r="AP2">
-        <v>200</v>
+        <v>2140</v>
       </c>
       <c r="AQ2">
-        <v>250</v>
+        <v>2295</v>
       </c>
       <c r="AR2">
-        <v>225</v>
+        <v>2000</v>
       </c>
       <c r="AS2">
-        <v>275</v>
+        <v>2500</v>
       </c>
       <c r="AT2">
-        <v>200</v>
+        <v>2250</v>
       </c>
       <c r="AU2">
-        <v>250</v>
+        <v>2750</v>
       </c>
       <c r="AV2">
-        <v>225</v>
+        <v>2100</v>
       </c>
       <c r="AW2">
-        <v>275</v>
+        <v>2140</v>
       </c>
       <c r="AX2">
-        <v>200</v>
+        <v>2295</v>
       </c>
       <c r="AY2">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="AZ2">
-        <v>225</v>
+        <v>2500</v>
       </c>
       <c r="BA2">
-        <v>275</v>
+        <v>2250</v>
       </c>
       <c r="BB2">
-        <v>200</v>
+        <v>2750</v>
       </c>
       <c r="BC2">
-        <v>250</v>
+        <v>2100</v>
       </c>
       <c r="BD2">
-        <v>225</v>
+        <v>2140</v>
       </c>
       <c r="BE2">
-        <v>275</v>
+        <v>2295</v>
       </c>
       <c r="BF2">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="BG2">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="BH2">
-        <v>225</v>
+        <v>2250</v>
       </c>
       <c r="BI2">
-        <v>275</v>
+        <v>2750</v>
       </c>
       <c r="BJ2">
-        <v>200</v>
+        <v>2100</v>
       </c>
       <c r="BK2">
-        <v>250</v>
+        <v>2140</v>
       </c>
       <c r="BL2">
-        <v>225</v>
+        <v>2295</v>
       </c>
       <c r="BM2">
-        <v>275</v>
+        <v>2000</v>
       </c>
       <c r="BN2">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="BO2">
-        <v>250</v>
+        <v>2250</v>
       </c>
       <c r="BP2">
-        <v>225</v>
+        <v>2750</v>
       </c>
       <c r="BQ2">
-        <v>275</v>
+        <v>2100</v>
       </c>
       <c r="BR2">
-        <v>200</v>
+        <v>2140</v>
       </c>
       <c r="BS2">
-        <v>250</v>
+        <v>2295</v>
       </c>
       <c r="BT2">
-        <v>225</v>
+        <v>2000</v>
       </c>
       <c r="BU2">
-        <v>275</v>
+        <v>2500</v>
       </c>
       <c r="BV2">
-        <v>200</v>
+        <v>2250</v>
       </c>
       <c r="BW2">
-        <v>250</v>
+        <v>2750</v>
       </c>
       <c r="BX2">
-        <v>225</v>
+        <v>2100</v>
       </c>
       <c r="BY2">
-        <v>275</v>
+        <v>2140</v>
       </c>
       <c r="BZ2">
-        <v>200</v>
+        <v>2295</v>
       </c>
       <c r="CA2">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="CB2">
-        <v>225</v>
+        <v>2500</v>
       </c>
       <c r="CC2">
-        <v>275</v>
+        <v>2250</v>
       </c>
       <c r="CD2">
-        <v>200</v>
+        <v>2750</v>
       </c>
       <c r="CE2">
-        <v>250</v>
+        <v>2100</v>
       </c>
       <c r="CF2">
-        <v>225</v>
+        <v>2140</v>
       </c>
       <c r="CG2">
-        <v>275</v>
+        <v>2295</v>
       </c>
     </row>
   </sheetData>
@@ -1711,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD436EB6-D80F-424D-BA0F-03D2C90350F3}">
   <dimension ref="A1:CG17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BM1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="CC19" sqref="CC19"/>
+    <sheetView topLeftCell="BM1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="BQ15" sqref="BQ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6094,10 +6190,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4BEACF-C0DE-4FD5-92C9-59D40372BBA2}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A31" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6246,7 +6342,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -6303,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -6314,7 +6410,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -6374,7 +6470,552 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10512,10 +11153,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4D9919-2431-4026-8FD6-F5920B77E3EE}">
-  <dimension ref="A1:CG17"/>
+  <dimension ref="A1:CG49"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="BN2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="CE27" sqref="CE27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14889,6 +15530,8230 @@
         <v>53</v>
       </c>
     </row>
+    <row r="18" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>44</v>
+      </c>
+      <c r="E18">
+        <v>44</v>
+      </c>
+      <c r="F18">
+        <v>44</v>
+      </c>
+      <c r="G18">
+        <v>44</v>
+      </c>
+      <c r="H18">
+        <v>44</v>
+      </c>
+      <c r="I18">
+        <v>44</v>
+      </c>
+      <c r="J18">
+        <v>44</v>
+      </c>
+      <c r="K18">
+        <v>44</v>
+      </c>
+      <c r="L18">
+        <v>44</v>
+      </c>
+      <c r="M18">
+        <v>44</v>
+      </c>
+      <c r="N18">
+        <v>44</v>
+      </c>
+      <c r="O18">
+        <v>44</v>
+      </c>
+      <c r="P18">
+        <v>44</v>
+      </c>
+      <c r="Q18">
+        <v>44</v>
+      </c>
+      <c r="R18">
+        <v>44</v>
+      </c>
+      <c r="S18">
+        <v>44</v>
+      </c>
+      <c r="T18">
+        <v>44</v>
+      </c>
+      <c r="U18">
+        <v>44</v>
+      </c>
+      <c r="V18">
+        <v>44</v>
+      </c>
+      <c r="W18">
+        <v>47</v>
+      </c>
+      <c r="X18">
+        <v>47</v>
+      </c>
+      <c r="Y18">
+        <v>47</v>
+      </c>
+      <c r="Z18">
+        <v>47</v>
+      </c>
+      <c r="AA18">
+        <v>47</v>
+      </c>
+      <c r="AB18">
+        <v>47</v>
+      </c>
+      <c r="AC18">
+        <v>47</v>
+      </c>
+      <c r="AD18">
+        <v>47</v>
+      </c>
+      <c r="AE18">
+        <v>47</v>
+      </c>
+      <c r="AF18">
+        <v>47</v>
+      </c>
+      <c r="AG18">
+        <v>47</v>
+      </c>
+      <c r="AH18">
+        <v>47</v>
+      </c>
+      <c r="AI18">
+        <v>47</v>
+      </c>
+      <c r="AJ18">
+        <v>47</v>
+      </c>
+      <c r="AK18">
+        <v>47</v>
+      </c>
+      <c r="AL18">
+        <v>47</v>
+      </c>
+      <c r="AM18">
+        <v>47</v>
+      </c>
+      <c r="AN18">
+        <v>47</v>
+      </c>
+      <c r="AO18">
+        <v>47</v>
+      </c>
+      <c r="AP18">
+        <v>47</v>
+      </c>
+      <c r="AQ18">
+        <v>47</v>
+      </c>
+      <c r="AR18">
+        <v>45</v>
+      </c>
+      <c r="AS18">
+        <v>45</v>
+      </c>
+      <c r="AT18">
+        <v>45</v>
+      </c>
+      <c r="AU18">
+        <v>45</v>
+      </c>
+      <c r="AV18">
+        <v>45</v>
+      </c>
+      <c r="AW18">
+        <v>45</v>
+      </c>
+      <c r="AX18">
+        <v>45</v>
+      </c>
+      <c r="AY18">
+        <v>45</v>
+      </c>
+      <c r="AZ18">
+        <v>45</v>
+      </c>
+      <c r="BA18">
+        <v>45</v>
+      </c>
+      <c r="BB18">
+        <v>45</v>
+      </c>
+      <c r="BC18">
+        <v>45</v>
+      </c>
+      <c r="BD18">
+        <v>45</v>
+      </c>
+      <c r="BE18">
+        <v>45</v>
+      </c>
+      <c r="BF18">
+        <v>45</v>
+      </c>
+      <c r="BG18">
+        <v>45</v>
+      </c>
+      <c r="BH18">
+        <v>45</v>
+      </c>
+      <c r="BI18">
+        <v>45</v>
+      </c>
+      <c r="BJ18">
+        <v>45</v>
+      </c>
+      <c r="BK18">
+        <v>45</v>
+      </c>
+      <c r="BL18">
+        <v>45</v>
+      </c>
+      <c r="BM18">
+        <v>45</v>
+      </c>
+      <c r="BN18">
+        <v>45</v>
+      </c>
+      <c r="BO18">
+        <v>45</v>
+      </c>
+      <c r="BP18">
+        <v>45</v>
+      </c>
+      <c r="BQ18">
+        <v>45</v>
+      </c>
+      <c r="BR18">
+        <v>45</v>
+      </c>
+      <c r="BS18">
+        <v>45</v>
+      </c>
+      <c r="BT18">
+        <v>45</v>
+      </c>
+      <c r="BU18">
+        <v>45</v>
+      </c>
+      <c r="BV18">
+        <v>45</v>
+      </c>
+      <c r="BW18">
+        <v>45</v>
+      </c>
+      <c r="BX18">
+        <v>45</v>
+      </c>
+      <c r="BY18">
+        <v>45</v>
+      </c>
+      <c r="BZ18">
+        <v>45</v>
+      </c>
+      <c r="CA18">
+        <v>45</v>
+      </c>
+      <c r="CB18">
+        <v>45</v>
+      </c>
+      <c r="CC18">
+        <v>45</v>
+      </c>
+      <c r="CD18">
+        <v>45</v>
+      </c>
+      <c r="CE18">
+        <v>45</v>
+      </c>
+      <c r="CF18">
+        <v>45</v>
+      </c>
+      <c r="CG18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>44</v>
+      </c>
+      <c r="D19">
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <v>44</v>
+      </c>
+      <c r="F19">
+        <v>44</v>
+      </c>
+      <c r="G19">
+        <v>44</v>
+      </c>
+      <c r="H19">
+        <v>44</v>
+      </c>
+      <c r="I19">
+        <v>44</v>
+      </c>
+      <c r="J19">
+        <v>44</v>
+      </c>
+      <c r="K19">
+        <v>44</v>
+      </c>
+      <c r="L19">
+        <v>44</v>
+      </c>
+      <c r="M19">
+        <v>44</v>
+      </c>
+      <c r="N19">
+        <v>44</v>
+      </c>
+      <c r="O19">
+        <v>44</v>
+      </c>
+      <c r="P19">
+        <v>44</v>
+      </c>
+      <c r="Q19">
+        <v>44</v>
+      </c>
+      <c r="R19">
+        <v>44</v>
+      </c>
+      <c r="S19">
+        <v>44</v>
+      </c>
+      <c r="T19">
+        <v>44</v>
+      </c>
+      <c r="U19">
+        <v>44</v>
+      </c>
+      <c r="V19">
+        <v>44</v>
+      </c>
+      <c r="W19">
+        <v>47</v>
+      </c>
+      <c r="X19">
+        <v>47</v>
+      </c>
+      <c r="Y19">
+        <v>47</v>
+      </c>
+      <c r="Z19">
+        <v>47</v>
+      </c>
+      <c r="AA19">
+        <v>47</v>
+      </c>
+      <c r="AB19">
+        <v>47</v>
+      </c>
+      <c r="AC19">
+        <v>47</v>
+      </c>
+      <c r="AD19">
+        <v>47</v>
+      </c>
+      <c r="AE19">
+        <v>47</v>
+      </c>
+      <c r="AF19">
+        <v>47</v>
+      </c>
+      <c r="AG19">
+        <v>47</v>
+      </c>
+      <c r="AH19">
+        <v>47</v>
+      </c>
+      <c r="AI19">
+        <v>47</v>
+      </c>
+      <c r="AJ19">
+        <v>47</v>
+      </c>
+      <c r="AK19">
+        <v>47</v>
+      </c>
+      <c r="AL19">
+        <v>47</v>
+      </c>
+      <c r="AM19">
+        <v>47</v>
+      </c>
+      <c r="AN19">
+        <v>47</v>
+      </c>
+      <c r="AO19">
+        <v>47</v>
+      </c>
+      <c r="AP19">
+        <v>47</v>
+      </c>
+      <c r="AQ19">
+        <v>47</v>
+      </c>
+      <c r="AR19">
+        <v>45</v>
+      </c>
+      <c r="AS19">
+        <v>45</v>
+      </c>
+      <c r="AT19">
+        <v>45</v>
+      </c>
+      <c r="AU19">
+        <v>45</v>
+      </c>
+      <c r="AV19">
+        <v>45</v>
+      </c>
+      <c r="AW19">
+        <v>45</v>
+      </c>
+      <c r="AX19">
+        <v>45</v>
+      </c>
+      <c r="AY19">
+        <v>45</v>
+      </c>
+      <c r="AZ19">
+        <v>45</v>
+      </c>
+      <c r="BA19">
+        <v>45</v>
+      </c>
+      <c r="BB19">
+        <v>45</v>
+      </c>
+      <c r="BC19">
+        <v>45</v>
+      </c>
+      <c r="BD19">
+        <v>45</v>
+      </c>
+      <c r="BE19">
+        <v>45</v>
+      </c>
+      <c r="BF19">
+        <v>45</v>
+      </c>
+      <c r="BG19">
+        <v>45</v>
+      </c>
+      <c r="BH19">
+        <v>45</v>
+      </c>
+      <c r="BI19">
+        <v>45</v>
+      </c>
+      <c r="BJ19">
+        <v>45</v>
+      </c>
+      <c r="BK19">
+        <v>45</v>
+      </c>
+      <c r="BL19">
+        <v>45</v>
+      </c>
+      <c r="BM19">
+        <v>47</v>
+      </c>
+      <c r="BN19">
+        <v>47</v>
+      </c>
+      <c r="BO19">
+        <v>47</v>
+      </c>
+      <c r="BP19">
+        <v>47</v>
+      </c>
+      <c r="BQ19">
+        <v>47</v>
+      </c>
+      <c r="BR19">
+        <v>47</v>
+      </c>
+      <c r="BS19">
+        <v>47</v>
+      </c>
+      <c r="BT19">
+        <v>47</v>
+      </c>
+      <c r="BU19">
+        <v>47</v>
+      </c>
+      <c r="BV19">
+        <v>47</v>
+      </c>
+      <c r="BW19">
+        <v>47</v>
+      </c>
+      <c r="BX19">
+        <v>47</v>
+      </c>
+      <c r="BY19">
+        <v>47</v>
+      </c>
+      <c r="BZ19">
+        <v>47</v>
+      </c>
+      <c r="CA19">
+        <v>47</v>
+      </c>
+      <c r="CB19">
+        <v>47</v>
+      </c>
+      <c r="CC19">
+        <v>47</v>
+      </c>
+      <c r="CD19">
+        <v>47</v>
+      </c>
+      <c r="CE19">
+        <v>47</v>
+      </c>
+      <c r="CF19">
+        <v>47</v>
+      </c>
+      <c r="CG19">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <v>44</v>
+      </c>
+      <c r="D20">
+        <v>44</v>
+      </c>
+      <c r="E20">
+        <v>44</v>
+      </c>
+      <c r="F20">
+        <v>44</v>
+      </c>
+      <c r="G20">
+        <v>44</v>
+      </c>
+      <c r="H20">
+        <v>44</v>
+      </c>
+      <c r="I20">
+        <v>44</v>
+      </c>
+      <c r="J20">
+        <v>44</v>
+      </c>
+      <c r="K20">
+        <v>44</v>
+      </c>
+      <c r="L20">
+        <v>44</v>
+      </c>
+      <c r="M20">
+        <v>44</v>
+      </c>
+      <c r="N20">
+        <v>44</v>
+      </c>
+      <c r="O20">
+        <v>44</v>
+      </c>
+      <c r="P20">
+        <v>44</v>
+      </c>
+      <c r="Q20">
+        <v>44</v>
+      </c>
+      <c r="R20">
+        <v>44</v>
+      </c>
+      <c r="S20">
+        <v>44</v>
+      </c>
+      <c r="T20">
+        <v>44</v>
+      </c>
+      <c r="U20">
+        <v>44</v>
+      </c>
+      <c r="V20">
+        <v>44</v>
+      </c>
+      <c r="W20">
+        <v>47</v>
+      </c>
+      <c r="X20">
+        <v>47</v>
+      </c>
+      <c r="Y20">
+        <v>47</v>
+      </c>
+      <c r="Z20">
+        <v>47</v>
+      </c>
+      <c r="AA20">
+        <v>47</v>
+      </c>
+      <c r="AB20">
+        <v>47</v>
+      </c>
+      <c r="AC20">
+        <v>47</v>
+      </c>
+      <c r="AD20">
+        <v>47</v>
+      </c>
+      <c r="AE20">
+        <v>47</v>
+      </c>
+      <c r="AF20">
+        <v>47</v>
+      </c>
+      <c r="AG20">
+        <v>47</v>
+      </c>
+      <c r="AH20">
+        <v>47</v>
+      </c>
+      <c r="AI20">
+        <v>47</v>
+      </c>
+      <c r="AJ20">
+        <v>47</v>
+      </c>
+      <c r="AK20">
+        <v>47</v>
+      </c>
+      <c r="AL20">
+        <v>47</v>
+      </c>
+      <c r="AM20">
+        <v>47</v>
+      </c>
+      <c r="AN20">
+        <v>47</v>
+      </c>
+      <c r="AO20">
+        <v>47</v>
+      </c>
+      <c r="AP20">
+        <v>47</v>
+      </c>
+      <c r="AQ20">
+        <v>47</v>
+      </c>
+      <c r="AR20">
+        <v>46</v>
+      </c>
+      <c r="AS20">
+        <v>46</v>
+      </c>
+      <c r="AT20">
+        <v>46</v>
+      </c>
+      <c r="AU20">
+        <v>46</v>
+      </c>
+      <c r="AV20">
+        <v>46</v>
+      </c>
+      <c r="AW20">
+        <v>46</v>
+      </c>
+      <c r="AX20">
+        <v>46</v>
+      </c>
+      <c r="AY20">
+        <v>46</v>
+      </c>
+      <c r="AZ20">
+        <v>46</v>
+      </c>
+      <c r="BA20">
+        <v>46</v>
+      </c>
+      <c r="BB20">
+        <v>46</v>
+      </c>
+      <c r="BC20">
+        <v>46</v>
+      </c>
+      <c r="BD20">
+        <v>46</v>
+      </c>
+      <c r="BE20">
+        <v>46</v>
+      </c>
+      <c r="BF20">
+        <v>46</v>
+      </c>
+      <c r="BG20">
+        <v>46</v>
+      </c>
+      <c r="BH20">
+        <v>46</v>
+      </c>
+      <c r="BI20">
+        <v>46</v>
+      </c>
+      <c r="BJ20">
+        <v>46</v>
+      </c>
+      <c r="BK20">
+        <v>46</v>
+      </c>
+      <c r="BL20">
+        <v>46</v>
+      </c>
+      <c r="BM20">
+        <v>47</v>
+      </c>
+      <c r="BN20">
+        <v>47</v>
+      </c>
+      <c r="BO20">
+        <v>47</v>
+      </c>
+      <c r="BP20">
+        <v>47</v>
+      </c>
+      <c r="BQ20">
+        <v>47</v>
+      </c>
+      <c r="BR20">
+        <v>47</v>
+      </c>
+      <c r="BS20">
+        <v>47</v>
+      </c>
+      <c r="BT20">
+        <v>47</v>
+      </c>
+      <c r="BU20">
+        <v>47</v>
+      </c>
+      <c r="BV20">
+        <v>47</v>
+      </c>
+      <c r="BW20">
+        <v>47</v>
+      </c>
+      <c r="BX20">
+        <v>47</v>
+      </c>
+      <c r="BY20">
+        <v>47</v>
+      </c>
+      <c r="BZ20">
+        <v>47</v>
+      </c>
+      <c r="CA20">
+        <v>47</v>
+      </c>
+      <c r="CB20">
+        <v>47</v>
+      </c>
+      <c r="CC20">
+        <v>47</v>
+      </c>
+      <c r="CD20">
+        <v>47</v>
+      </c>
+      <c r="CE20">
+        <v>47</v>
+      </c>
+      <c r="CF20">
+        <v>47</v>
+      </c>
+      <c r="CG20">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21">
+        <v>44</v>
+      </c>
+      <c r="C21">
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <v>44</v>
+      </c>
+      <c r="E21">
+        <v>44</v>
+      </c>
+      <c r="F21">
+        <v>44</v>
+      </c>
+      <c r="G21">
+        <v>44</v>
+      </c>
+      <c r="H21">
+        <v>44</v>
+      </c>
+      <c r="I21">
+        <v>44</v>
+      </c>
+      <c r="J21">
+        <v>44</v>
+      </c>
+      <c r="K21">
+        <v>44</v>
+      </c>
+      <c r="L21">
+        <v>44</v>
+      </c>
+      <c r="M21">
+        <v>44</v>
+      </c>
+      <c r="N21">
+        <v>44</v>
+      </c>
+      <c r="O21">
+        <v>44</v>
+      </c>
+      <c r="P21">
+        <v>44</v>
+      </c>
+      <c r="Q21">
+        <v>44</v>
+      </c>
+      <c r="R21">
+        <v>44</v>
+      </c>
+      <c r="S21">
+        <v>44</v>
+      </c>
+      <c r="T21">
+        <v>44</v>
+      </c>
+      <c r="U21">
+        <v>44</v>
+      </c>
+      <c r="V21">
+        <v>44</v>
+      </c>
+      <c r="W21">
+        <v>47</v>
+      </c>
+      <c r="X21">
+        <v>47</v>
+      </c>
+      <c r="Y21">
+        <v>47</v>
+      </c>
+      <c r="Z21">
+        <v>47</v>
+      </c>
+      <c r="AA21">
+        <v>47</v>
+      </c>
+      <c r="AB21">
+        <v>47</v>
+      </c>
+      <c r="AC21">
+        <v>47</v>
+      </c>
+      <c r="AD21">
+        <v>47</v>
+      </c>
+      <c r="AE21">
+        <v>47</v>
+      </c>
+      <c r="AF21">
+        <v>47</v>
+      </c>
+      <c r="AG21">
+        <v>47</v>
+      </c>
+      <c r="AH21">
+        <v>47</v>
+      </c>
+      <c r="AI21">
+        <v>47</v>
+      </c>
+      <c r="AJ21">
+        <v>47</v>
+      </c>
+      <c r="AK21">
+        <v>47</v>
+      </c>
+      <c r="AL21">
+        <v>47</v>
+      </c>
+      <c r="AM21">
+        <v>47</v>
+      </c>
+      <c r="AN21">
+        <v>47</v>
+      </c>
+      <c r="AO21">
+        <v>47</v>
+      </c>
+      <c r="AP21">
+        <v>47</v>
+      </c>
+      <c r="AQ21">
+        <v>47</v>
+      </c>
+      <c r="AR21">
+        <v>46</v>
+      </c>
+      <c r="AS21">
+        <v>46</v>
+      </c>
+      <c r="AT21">
+        <v>46</v>
+      </c>
+      <c r="AU21">
+        <v>46</v>
+      </c>
+      <c r="AV21">
+        <v>46</v>
+      </c>
+      <c r="AW21">
+        <v>46</v>
+      </c>
+      <c r="AX21">
+        <v>46</v>
+      </c>
+      <c r="AY21">
+        <v>46</v>
+      </c>
+      <c r="AZ21">
+        <v>46</v>
+      </c>
+      <c r="BA21">
+        <v>46</v>
+      </c>
+      <c r="BB21">
+        <v>46</v>
+      </c>
+      <c r="BC21">
+        <v>46</v>
+      </c>
+      <c r="BD21">
+        <v>46</v>
+      </c>
+      <c r="BE21">
+        <v>46</v>
+      </c>
+      <c r="BF21">
+        <v>46</v>
+      </c>
+      <c r="BG21">
+        <v>46</v>
+      </c>
+      <c r="BH21">
+        <v>46</v>
+      </c>
+      <c r="BI21">
+        <v>46</v>
+      </c>
+      <c r="BJ21">
+        <v>46</v>
+      </c>
+      <c r="BK21">
+        <v>46</v>
+      </c>
+      <c r="BL21">
+        <v>46</v>
+      </c>
+      <c r="BM21">
+        <v>49</v>
+      </c>
+      <c r="BN21">
+        <v>49</v>
+      </c>
+      <c r="BO21">
+        <v>49</v>
+      </c>
+      <c r="BP21">
+        <v>49</v>
+      </c>
+      <c r="BQ21">
+        <v>49</v>
+      </c>
+      <c r="BR21">
+        <v>49</v>
+      </c>
+      <c r="BS21">
+        <v>49</v>
+      </c>
+      <c r="BT21">
+        <v>49</v>
+      </c>
+      <c r="BU21">
+        <v>49</v>
+      </c>
+      <c r="BV21">
+        <v>49</v>
+      </c>
+      <c r="BW21">
+        <v>49</v>
+      </c>
+      <c r="BX21">
+        <v>49</v>
+      </c>
+      <c r="BY21">
+        <v>49</v>
+      </c>
+      <c r="BZ21">
+        <v>49</v>
+      </c>
+      <c r="CA21">
+        <v>49</v>
+      </c>
+      <c r="CB21">
+        <v>49</v>
+      </c>
+      <c r="CC21">
+        <v>49</v>
+      </c>
+      <c r="CD21">
+        <v>49</v>
+      </c>
+      <c r="CE21">
+        <v>49</v>
+      </c>
+      <c r="CF21">
+        <v>49</v>
+      </c>
+      <c r="CG21">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>44</v>
+      </c>
+      <c r="D22">
+        <v>44</v>
+      </c>
+      <c r="E22">
+        <v>44</v>
+      </c>
+      <c r="F22">
+        <v>44</v>
+      </c>
+      <c r="G22">
+        <v>44</v>
+      </c>
+      <c r="H22">
+        <v>44</v>
+      </c>
+      <c r="I22">
+        <v>44</v>
+      </c>
+      <c r="J22">
+        <v>44</v>
+      </c>
+      <c r="K22">
+        <v>44</v>
+      </c>
+      <c r="L22">
+        <v>44</v>
+      </c>
+      <c r="M22">
+        <v>44</v>
+      </c>
+      <c r="N22">
+        <v>44</v>
+      </c>
+      <c r="O22">
+        <v>44</v>
+      </c>
+      <c r="P22">
+        <v>44</v>
+      </c>
+      <c r="Q22">
+        <v>44</v>
+      </c>
+      <c r="R22">
+        <v>44</v>
+      </c>
+      <c r="S22">
+        <v>44</v>
+      </c>
+      <c r="T22">
+        <v>44</v>
+      </c>
+      <c r="U22">
+        <v>44</v>
+      </c>
+      <c r="V22">
+        <v>44</v>
+      </c>
+      <c r="W22">
+        <v>44</v>
+      </c>
+      <c r="X22">
+        <v>44</v>
+      </c>
+      <c r="Y22">
+        <v>44</v>
+      </c>
+      <c r="Z22">
+        <v>44</v>
+      </c>
+      <c r="AA22">
+        <v>44</v>
+      </c>
+      <c r="AB22">
+        <v>44</v>
+      </c>
+      <c r="AC22">
+        <v>44</v>
+      </c>
+      <c r="AD22">
+        <v>44</v>
+      </c>
+      <c r="AE22">
+        <v>44</v>
+      </c>
+      <c r="AF22">
+        <v>44</v>
+      </c>
+      <c r="AG22">
+        <v>44</v>
+      </c>
+      <c r="AH22">
+        <v>44</v>
+      </c>
+      <c r="AI22">
+        <v>44</v>
+      </c>
+      <c r="AJ22">
+        <v>44</v>
+      </c>
+      <c r="AK22">
+        <v>44</v>
+      </c>
+      <c r="AL22">
+        <v>44</v>
+      </c>
+      <c r="AM22">
+        <v>44</v>
+      </c>
+      <c r="AN22">
+        <v>44</v>
+      </c>
+      <c r="AO22">
+        <v>44</v>
+      </c>
+      <c r="AP22">
+        <v>44</v>
+      </c>
+      <c r="AQ22">
+        <v>44</v>
+      </c>
+      <c r="AR22">
+        <v>42</v>
+      </c>
+      <c r="AS22">
+        <v>42</v>
+      </c>
+      <c r="AT22">
+        <v>42</v>
+      </c>
+      <c r="AU22">
+        <v>42</v>
+      </c>
+      <c r="AV22">
+        <v>42</v>
+      </c>
+      <c r="AW22">
+        <v>42</v>
+      </c>
+      <c r="AX22">
+        <v>42</v>
+      </c>
+      <c r="AY22">
+        <v>42</v>
+      </c>
+      <c r="AZ22">
+        <v>42</v>
+      </c>
+      <c r="BA22">
+        <v>42</v>
+      </c>
+      <c r="BB22">
+        <v>42</v>
+      </c>
+      <c r="BC22">
+        <v>42</v>
+      </c>
+      <c r="BD22">
+        <v>42</v>
+      </c>
+      <c r="BE22">
+        <v>42</v>
+      </c>
+      <c r="BF22">
+        <v>42</v>
+      </c>
+      <c r="BG22">
+        <v>42</v>
+      </c>
+      <c r="BH22">
+        <v>42</v>
+      </c>
+      <c r="BI22">
+        <v>42</v>
+      </c>
+      <c r="BJ22">
+        <v>42</v>
+      </c>
+      <c r="BK22">
+        <v>42</v>
+      </c>
+      <c r="BL22">
+        <v>42</v>
+      </c>
+      <c r="BM22">
+        <v>42</v>
+      </c>
+      <c r="BN22">
+        <v>42</v>
+      </c>
+      <c r="BO22">
+        <v>42</v>
+      </c>
+      <c r="BP22">
+        <v>42</v>
+      </c>
+      <c r="BQ22">
+        <v>42</v>
+      </c>
+      <c r="BR22">
+        <v>42</v>
+      </c>
+      <c r="BS22">
+        <v>42</v>
+      </c>
+      <c r="BT22">
+        <v>42</v>
+      </c>
+      <c r="BU22">
+        <v>42</v>
+      </c>
+      <c r="BV22">
+        <v>42</v>
+      </c>
+      <c r="BW22">
+        <v>42</v>
+      </c>
+      <c r="BX22">
+        <v>42</v>
+      </c>
+      <c r="BY22">
+        <v>42</v>
+      </c>
+      <c r="BZ22">
+        <v>42</v>
+      </c>
+      <c r="CA22">
+        <v>42</v>
+      </c>
+      <c r="CB22">
+        <v>42</v>
+      </c>
+      <c r="CC22">
+        <v>42</v>
+      </c>
+      <c r="CD22">
+        <v>42</v>
+      </c>
+      <c r="CE22">
+        <v>42</v>
+      </c>
+      <c r="CF22">
+        <v>42</v>
+      </c>
+      <c r="CG22">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23">
+        <v>44</v>
+      </c>
+      <c r="C23">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>44</v>
+      </c>
+      <c r="E23">
+        <v>44</v>
+      </c>
+      <c r="F23">
+        <v>44</v>
+      </c>
+      <c r="G23">
+        <v>44</v>
+      </c>
+      <c r="H23">
+        <v>44</v>
+      </c>
+      <c r="I23">
+        <v>44</v>
+      </c>
+      <c r="J23">
+        <v>44</v>
+      </c>
+      <c r="K23">
+        <v>44</v>
+      </c>
+      <c r="L23">
+        <v>44</v>
+      </c>
+      <c r="M23">
+        <v>44</v>
+      </c>
+      <c r="N23">
+        <v>44</v>
+      </c>
+      <c r="O23">
+        <v>44</v>
+      </c>
+      <c r="P23">
+        <v>44</v>
+      </c>
+      <c r="Q23">
+        <v>44</v>
+      </c>
+      <c r="R23">
+        <v>44</v>
+      </c>
+      <c r="S23">
+        <v>44</v>
+      </c>
+      <c r="T23">
+        <v>44</v>
+      </c>
+      <c r="U23">
+        <v>44</v>
+      </c>
+      <c r="V23">
+        <v>44</v>
+      </c>
+      <c r="W23">
+        <v>44</v>
+      </c>
+      <c r="X23">
+        <v>44</v>
+      </c>
+      <c r="Y23">
+        <v>44</v>
+      </c>
+      <c r="Z23">
+        <v>44</v>
+      </c>
+      <c r="AA23">
+        <v>44</v>
+      </c>
+      <c r="AB23">
+        <v>44</v>
+      </c>
+      <c r="AC23">
+        <v>44</v>
+      </c>
+      <c r="AD23">
+        <v>44</v>
+      </c>
+      <c r="AE23">
+        <v>44</v>
+      </c>
+      <c r="AF23">
+        <v>44</v>
+      </c>
+      <c r="AG23">
+        <v>44</v>
+      </c>
+      <c r="AH23">
+        <v>44</v>
+      </c>
+      <c r="AI23">
+        <v>44</v>
+      </c>
+      <c r="AJ23">
+        <v>44</v>
+      </c>
+      <c r="AK23">
+        <v>44</v>
+      </c>
+      <c r="AL23">
+        <v>44</v>
+      </c>
+      <c r="AM23">
+        <v>44</v>
+      </c>
+      <c r="AN23">
+        <v>44</v>
+      </c>
+      <c r="AO23">
+        <v>44</v>
+      </c>
+      <c r="AP23">
+        <v>44</v>
+      </c>
+      <c r="AQ23">
+        <v>44</v>
+      </c>
+      <c r="AR23">
+        <v>42</v>
+      </c>
+      <c r="AS23">
+        <v>42</v>
+      </c>
+      <c r="AT23">
+        <v>42</v>
+      </c>
+      <c r="AU23">
+        <v>42</v>
+      </c>
+      <c r="AV23">
+        <v>42</v>
+      </c>
+      <c r="AW23">
+        <v>42</v>
+      </c>
+      <c r="AX23">
+        <v>42</v>
+      </c>
+      <c r="AY23">
+        <v>42</v>
+      </c>
+      <c r="AZ23">
+        <v>42</v>
+      </c>
+      <c r="BA23">
+        <v>42</v>
+      </c>
+      <c r="BB23">
+        <v>42</v>
+      </c>
+      <c r="BC23">
+        <v>42</v>
+      </c>
+      <c r="BD23">
+        <v>42</v>
+      </c>
+      <c r="BE23">
+        <v>42</v>
+      </c>
+      <c r="BF23">
+        <v>42</v>
+      </c>
+      <c r="BG23">
+        <v>42</v>
+      </c>
+      <c r="BH23">
+        <v>42</v>
+      </c>
+      <c r="BI23">
+        <v>42</v>
+      </c>
+      <c r="BJ23">
+        <v>42</v>
+      </c>
+      <c r="BK23">
+        <v>42</v>
+      </c>
+      <c r="BL23">
+        <v>42</v>
+      </c>
+      <c r="BM23">
+        <v>45</v>
+      </c>
+      <c r="BN23">
+        <v>45</v>
+      </c>
+      <c r="BO23">
+        <v>45</v>
+      </c>
+      <c r="BP23">
+        <v>45</v>
+      </c>
+      <c r="BQ23">
+        <v>45</v>
+      </c>
+      <c r="BR23">
+        <v>45</v>
+      </c>
+      <c r="BS23">
+        <v>45</v>
+      </c>
+      <c r="BT23">
+        <v>45</v>
+      </c>
+      <c r="BU23">
+        <v>45</v>
+      </c>
+      <c r="BV23">
+        <v>45</v>
+      </c>
+      <c r="BW23">
+        <v>45</v>
+      </c>
+      <c r="BX23">
+        <v>45</v>
+      </c>
+      <c r="BY23">
+        <v>45</v>
+      </c>
+      <c r="BZ23">
+        <v>45</v>
+      </c>
+      <c r="CA23">
+        <v>45</v>
+      </c>
+      <c r="CB23">
+        <v>45</v>
+      </c>
+      <c r="CC23">
+        <v>45</v>
+      </c>
+      <c r="CD23">
+        <v>45</v>
+      </c>
+      <c r="CE23">
+        <v>45</v>
+      </c>
+      <c r="CF23">
+        <v>45</v>
+      </c>
+      <c r="CG23">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24">
+        <v>44</v>
+      </c>
+      <c r="C24">
+        <v>44</v>
+      </c>
+      <c r="D24">
+        <v>44</v>
+      </c>
+      <c r="E24">
+        <v>44</v>
+      </c>
+      <c r="F24">
+        <v>44</v>
+      </c>
+      <c r="G24">
+        <v>44</v>
+      </c>
+      <c r="H24">
+        <v>44</v>
+      </c>
+      <c r="I24">
+        <v>44</v>
+      </c>
+      <c r="J24">
+        <v>44</v>
+      </c>
+      <c r="K24">
+        <v>44</v>
+      </c>
+      <c r="L24">
+        <v>44</v>
+      </c>
+      <c r="M24">
+        <v>44</v>
+      </c>
+      <c r="N24">
+        <v>44</v>
+      </c>
+      <c r="O24">
+        <v>44</v>
+      </c>
+      <c r="P24">
+        <v>44</v>
+      </c>
+      <c r="Q24">
+        <v>44</v>
+      </c>
+      <c r="R24">
+        <v>44</v>
+      </c>
+      <c r="S24">
+        <v>44</v>
+      </c>
+      <c r="T24">
+        <v>44</v>
+      </c>
+      <c r="U24">
+        <v>44</v>
+      </c>
+      <c r="V24">
+        <v>44</v>
+      </c>
+      <c r="W24">
+        <v>44</v>
+      </c>
+      <c r="X24">
+        <v>44</v>
+      </c>
+      <c r="Y24">
+        <v>44</v>
+      </c>
+      <c r="Z24">
+        <v>44</v>
+      </c>
+      <c r="AA24">
+        <v>44</v>
+      </c>
+      <c r="AB24">
+        <v>44</v>
+      </c>
+      <c r="AC24">
+        <v>44</v>
+      </c>
+      <c r="AD24">
+        <v>44</v>
+      </c>
+      <c r="AE24">
+        <v>44</v>
+      </c>
+      <c r="AF24">
+        <v>44</v>
+      </c>
+      <c r="AG24">
+        <v>44</v>
+      </c>
+      <c r="AH24">
+        <v>44</v>
+      </c>
+      <c r="AI24">
+        <v>44</v>
+      </c>
+      <c r="AJ24">
+        <v>44</v>
+      </c>
+      <c r="AK24">
+        <v>44</v>
+      </c>
+      <c r="AL24">
+        <v>44</v>
+      </c>
+      <c r="AM24">
+        <v>44</v>
+      </c>
+      <c r="AN24">
+        <v>44</v>
+      </c>
+      <c r="AO24">
+        <v>44</v>
+      </c>
+      <c r="AP24">
+        <v>44</v>
+      </c>
+      <c r="AQ24">
+        <v>44</v>
+      </c>
+      <c r="AR24">
+        <v>44</v>
+      </c>
+      <c r="AS24">
+        <v>44</v>
+      </c>
+      <c r="AT24">
+        <v>44</v>
+      </c>
+      <c r="AU24">
+        <v>44</v>
+      </c>
+      <c r="AV24">
+        <v>44</v>
+      </c>
+      <c r="AW24">
+        <v>44</v>
+      </c>
+      <c r="AX24">
+        <v>44</v>
+      </c>
+      <c r="AY24">
+        <v>44</v>
+      </c>
+      <c r="AZ24">
+        <v>44</v>
+      </c>
+      <c r="BA24">
+        <v>44</v>
+      </c>
+      <c r="BB24">
+        <v>44</v>
+      </c>
+      <c r="BC24">
+        <v>44</v>
+      </c>
+      <c r="BD24">
+        <v>44</v>
+      </c>
+      <c r="BE24">
+        <v>44</v>
+      </c>
+      <c r="BF24">
+        <v>44</v>
+      </c>
+      <c r="BG24">
+        <v>44</v>
+      </c>
+      <c r="BH24">
+        <v>44</v>
+      </c>
+      <c r="BI24">
+        <v>44</v>
+      </c>
+      <c r="BJ24">
+        <v>44</v>
+      </c>
+      <c r="BK24">
+        <v>44</v>
+      </c>
+      <c r="BL24">
+        <v>44</v>
+      </c>
+      <c r="BM24">
+        <v>45</v>
+      </c>
+      <c r="BN24">
+        <v>45</v>
+      </c>
+      <c r="BO24">
+        <v>45</v>
+      </c>
+      <c r="BP24">
+        <v>45</v>
+      </c>
+      <c r="BQ24">
+        <v>45</v>
+      </c>
+      <c r="BR24">
+        <v>45</v>
+      </c>
+      <c r="BS24">
+        <v>45</v>
+      </c>
+      <c r="BT24">
+        <v>45</v>
+      </c>
+      <c r="BU24">
+        <v>45</v>
+      </c>
+      <c r="BV24">
+        <v>45</v>
+      </c>
+      <c r="BW24">
+        <v>45</v>
+      </c>
+      <c r="BX24">
+        <v>45</v>
+      </c>
+      <c r="BY24">
+        <v>45</v>
+      </c>
+      <c r="BZ24">
+        <v>45</v>
+      </c>
+      <c r="CA24">
+        <v>45</v>
+      </c>
+      <c r="CB24">
+        <v>45</v>
+      </c>
+      <c r="CC24">
+        <v>45</v>
+      </c>
+      <c r="CD24">
+        <v>45</v>
+      </c>
+      <c r="CE24">
+        <v>45</v>
+      </c>
+      <c r="CF24">
+        <v>45</v>
+      </c>
+      <c r="CG24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25">
+        <v>44</v>
+      </c>
+      <c r="C25">
+        <v>44</v>
+      </c>
+      <c r="D25">
+        <v>44</v>
+      </c>
+      <c r="E25">
+        <v>44</v>
+      </c>
+      <c r="F25">
+        <v>44</v>
+      </c>
+      <c r="G25">
+        <v>44</v>
+      </c>
+      <c r="H25">
+        <v>44</v>
+      </c>
+      <c r="I25">
+        <v>44</v>
+      </c>
+      <c r="J25">
+        <v>44</v>
+      </c>
+      <c r="K25">
+        <v>44</v>
+      </c>
+      <c r="L25">
+        <v>44</v>
+      </c>
+      <c r="M25">
+        <v>44</v>
+      </c>
+      <c r="N25">
+        <v>44</v>
+      </c>
+      <c r="O25">
+        <v>44</v>
+      </c>
+      <c r="P25">
+        <v>44</v>
+      </c>
+      <c r="Q25">
+        <v>44</v>
+      </c>
+      <c r="R25">
+        <v>44</v>
+      </c>
+      <c r="S25">
+        <v>44</v>
+      </c>
+      <c r="T25">
+        <v>44</v>
+      </c>
+      <c r="U25">
+        <v>44</v>
+      </c>
+      <c r="V25">
+        <v>44</v>
+      </c>
+      <c r="W25">
+        <v>44</v>
+      </c>
+      <c r="X25">
+        <v>44</v>
+      </c>
+      <c r="Y25">
+        <v>44</v>
+      </c>
+      <c r="Z25">
+        <v>44</v>
+      </c>
+      <c r="AA25">
+        <v>44</v>
+      </c>
+      <c r="AB25">
+        <v>44</v>
+      </c>
+      <c r="AC25">
+        <v>44</v>
+      </c>
+      <c r="AD25">
+        <v>44</v>
+      </c>
+      <c r="AE25">
+        <v>44</v>
+      </c>
+      <c r="AF25">
+        <v>44</v>
+      </c>
+      <c r="AG25">
+        <v>44</v>
+      </c>
+      <c r="AH25">
+        <v>44</v>
+      </c>
+      <c r="AI25">
+        <v>44</v>
+      </c>
+      <c r="AJ25">
+        <v>44</v>
+      </c>
+      <c r="AK25">
+        <v>44</v>
+      </c>
+      <c r="AL25">
+        <v>44</v>
+      </c>
+      <c r="AM25">
+        <v>44</v>
+      </c>
+      <c r="AN25">
+        <v>44</v>
+      </c>
+      <c r="AO25">
+        <v>44</v>
+      </c>
+      <c r="AP25">
+        <v>44</v>
+      </c>
+      <c r="AQ25">
+        <v>44</v>
+      </c>
+      <c r="AR25">
+        <v>44</v>
+      </c>
+      <c r="AS25">
+        <v>44</v>
+      </c>
+      <c r="AT25">
+        <v>44</v>
+      </c>
+      <c r="AU25">
+        <v>44</v>
+      </c>
+      <c r="AV25">
+        <v>44</v>
+      </c>
+      <c r="AW25">
+        <v>44</v>
+      </c>
+      <c r="AX25">
+        <v>44</v>
+      </c>
+      <c r="AY25">
+        <v>44</v>
+      </c>
+      <c r="AZ25">
+        <v>44</v>
+      </c>
+      <c r="BA25">
+        <v>44</v>
+      </c>
+      <c r="BB25">
+        <v>44</v>
+      </c>
+      <c r="BC25">
+        <v>44</v>
+      </c>
+      <c r="BD25">
+        <v>44</v>
+      </c>
+      <c r="BE25">
+        <v>44</v>
+      </c>
+      <c r="BF25">
+        <v>44</v>
+      </c>
+      <c r="BG25">
+        <v>44</v>
+      </c>
+      <c r="BH25">
+        <v>44</v>
+      </c>
+      <c r="BI25">
+        <v>44</v>
+      </c>
+      <c r="BJ25">
+        <v>44</v>
+      </c>
+      <c r="BK25">
+        <v>44</v>
+      </c>
+      <c r="BL25">
+        <v>44</v>
+      </c>
+      <c r="BM25">
+        <v>46</v>
+      </c>
+      <c r="BN25">
+        <v>46</v>
+      </c>
+      <c r="BO25">
+        <v>46</v>
+      </c>
+      <c r="BP25">
+        <v>46</v>
+      </c>
+      <c r="BQ25">
+        <v>46</v>
+      </c>
+      <c r="BR25">
+        <v>46</v>
+      </c>
+      <c r="BS25">
+        <v>46</v>
+      </c>
+      <c r="BT25">
+        <v>46</v>
+      </c>
+      <c r="BU25">
+        <v>46</v>
+      </c>
+      <c r="BV25">
+        <v>46</v>
+      </c>
+      <c r="BW25">
+        <v>46</v>
+      </c>
+      <c r="BX25">
+        <v>46</v>
+      </c>
+      <c r="BY25">
+        <v>46</v>
+      </c>
+      <c r="BZ25">
+        <v>46</v>
+      </c>
+      <c r="CA25">
+        <v>46</v>
+      </c>
+      <c r="CB25">
+        <v>46</v>
+      </c>
+      <c r="CC25">
+        <v>46</v>
+      </c>
+      <c r="CD25">
+        <v>46</v>
+      </c>
+      <c r="CE25">
+        <v>46</v>
+      </c>
+      <c r="CF25">
+        <v>46</v>
+      </c>
+      <c r="CG25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>50</v>
+      </c>
+      <c r="D26">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26">
+        <v>50</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+      <c r="I26">
+        <v>50</v>
+      </c>
+      <c r="J26">
+        <v>50</v>
+      </c>
+      <c r="K26">
+        <v>50</v>
+      </c>
+      <c r="L26">
+        <v>50</v>
+      </c>
+      <c r="M26">
+        <v>50</v>
+      </c>
+      <c r="N26">
+        <v>50</v>
+      </c>
+      <c r="O26">
+        <v>50</v>
+      </c>
+      <c r="P26">
+        <v>50</v>
+      </c>
+      <c r="Q26">
+        <v>50</v>
+      </c>
+      <c r="R26">
+        <v>50</v>
+      </c>
+      <c r="S26">
+        <v>50</v>
+      </c>
+      <c r="T26">
+        <v>50</v>
+      </c>
+      <c r="U26">
+        <v>50</v>
+      </c>
+      <c r="V26">
+        <v>50</v>
+      </c>
+      <c r="W26">
+        <v>52</v>
+      </c>
+      <c r="X26">
+        <v>52</v>
+      </c>
+      <c r="Y26">
+        <v>52</v>
+      </c>
+      <c r="Z26">
+        <v>52</v>
+      </c>
+      <c r="AA26">
+        <v>52</v>
+      </c>
+      <c r="AB26">
+        <v>52</v>
+      </c>
+      <c r="AC26">
+        <v>52</v>
+      </c>
+      <c r="AD26">
+        <v>52</v>
+      </c>
+      <c r="AE26">
+        <v>52</v>
+      </c>
+      <c r="AF26">
+        <v>52</v>
+      </c>
+      <c r="AG26">
+        <v>52</v>
+      </c>
+      <c r="AH26">
+        <v>52</v>
+      </c>
+      <c r="AI26">
+        <v>52</v>
+      </c>
+      <c r="AJ26">
+        <v>52</v>
+      </c>
+      <c r="AK26">
+        <v>52</v>
+      </c>
+      <c r="AL26">
+        <v>52</v>
+      </c>
+      <c r="AM26">
+        <v>52</v>
+      </c>
+      <c r="AN26">
+        <v>52</v>
+      </c>
+      <c r="AO26">
+        <v>52</v>
+      </c>
+      <c r="AP26">
+        <v>52</v>
+      </c>
+      <c r="AQ26">
+        <v>52</v>
+      </c>
+      <c r="AR26">
+        <v>50</v>
+      </c>
+      <c r="AS26">
+        <v>50</v>
+      </c>
+      <c r="AT26">
+        <v>50</v>
+      </c>
+      <c r="AU26">
+        <v>50</v>
+      </c>
+      <c r="AV26">
+        <v>50</v>
+      </c>
+      <c r="AW26">
+        <v>50</v>
+      </c>
+      <c r="AX26">
+        <v>50</v>
+      </c>
+      <c r="AY26">
+        <v>50</v>
+      </c>
+      <c r="AZ26">
+        <v>50</v>
+      </c>
+      <c r="BA26">
+        <v>50</v>
+      </c>
+      <c r="BB26">
+        <v>50</v>
+      </c>
+      <c r="BC26">
+        <v>50</v>
+      </c>
+      <c r="BD26">
+        <v>50</v>
+      </c>
+      <c r="BE26">
+        <v>50</v>
+      </c>
+      <c r="BF26">
+        <v>50</v>
+      </c>
+      <c r="BG26">
+        <v>50</v>
+      </c>
+      <c r="BH26">
+        <v>50</v>
+      </c>
+      <c r="BI26">
+        <v>50</v>
+      </c>
+      <c r="BJ26">
+        <v>50</v>
+      </c>
+      <c r="BK26">
+        <v>50</v>
+      </c>
+      <c r="BL26">
+        <v>50</v>
+      </c>
+      <c r="BM26">
+        <v>51</v>
+      </c>
+      <c r="BN26">
+        <v>51</v>
+      </c>
+      <c r="BO26">
+        <v>51</v>
+      </c>
+      <c r="BP26">
+        <v>51</v>
+      </c>
+      <c r="BQ26">
+        <v>51</v>
+      </c>
+      <c r="BR26">
+        <v>51</v>
+      </c>
+      <c r="BS26">
+        <v>51</v>
+      </c>
+      <c r="BT26">
+        <v>51</v>
+      </c>
+      <c r="BU26">
+        <v>51</v>
+      </c>
+      <c r="BV26">
+        <v>51</v>
+      </c>
+      <c r="BW26">
+        <v>51</v>
+      </c>
+      <c r="BX26">
+        <v>51</v>
+      </c>
+      <c r="BY26">
+        <v>51</v>
+      </c>
+      <c r="BZ26">
+        <v>51</v>
+      </c>
+      <c r="CA26">
+        <v>51</v>
+      </c>
+      <c r="CB26">
+        <v>51</v>
+      </c>
+      <c r="CC26">
+        <v>51</v>
+      </c>
+      <c r="CD26">
+        <v>51</v>
+      </c>
+      <c r="CE26">
+        <v>51</v>
+      </c>
+      <c r="CF26">
+        <v>51</v>
+      </c>
+      <c r="CG26">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>50</v>
+      </c>
+      <c r="H27">
+        <v>50</v>
+      </c>
+      <c r="I27">
+        <v>50</v>
+      </c>
+      <c r="J27">
+        <v>50</v>
+      </c>
+      <c r="K27">
+        <v>50</v>
+      </c>
+      <c r="L27">
+        <v>50</v>
+      </c>
+      <c r="M27">
+        <v>50</v>
+      </c>
+      <c r="N27">
+        <v>50</v>
+      </c>
+      <c r="O27">
+        <v>50</v>
+      </c>
+      <c r="P27">
+        <v>50</v>
+      </c>
+      <c r="Q27">
+        <v>50</v>
+      </c>
+      <c r="R27">
+        <v>50</v>
+      </c>
+      <c r="S27">
+        <v>50</v>
+      </c>
+      <c r="T27">
+        <v>50</v>
+      </c>
+      <c r="U27">
+        <v>50</v>
+      </c>
+      <c r="V27">
+        <v>50</v>
+      </c>
+      <c r="W27">
+        <v>52</v>
+      </c>
+      <c r="X27">
+        <v>52</v>
+      </c>
+      <c r="Y27">
+        <v>52</v>
+      </c>
+      <c r="Z27">
+        <v>52</v>
+      </c>
+      <c r="AA27">
+        <v>52</v>
+      </c>
+      <c r="AB27">
+        <v>52</v>
+      </c>
+      <c r="AC27">
+        <v>52</v>
+      </c>
+      <c r="AD27">
+        <v>52</v>
+      </c>
+      <c r="AE27">
+        <v>52</v>
+      </c>
+      <c r="AF27">
+        <v>52</v>
+      </c>
+      <c r="AG27">
+        <v>52</v>
+      </c>
+      <c r="AH27">
+        <v>52</v>
+      </c>
+      <c r="AI27">
+        <v>52</v>
+      </c>
+      <c r="AJ27">
+        <v>52</v>
+      </c>
+      <c r="AK27">
+        <v>52</v>
+      </c>
+      <c r="AL27">
+        <v>52</v>
+      </c>
+      <c r="AM27">
+        <v>52</v>
+      </c>
+      <c r="AN27">
+        <v>52</v>
+      </c>
+      <c r="AO27">
+        <v>52</v>
+      </c>
+      <c r="AP27">
+        <v>52</v>
+      </c>
+      <c r="AQ27">
+        <v>52</v>
+      </c>
+      <c r="AR27">
+        <v>50</v>
+      </c>
+      <c r="AS27">
+        <v>50</v>
+      </c>
+      <c r="AT27">
+        <v>50</v>
+      </c>
+      <c r="AU27">
+        <v>50</v>
+      </c>
+      <c r="AV27">
+        <v>50</v>
+      </c>
+      <c r="AW27">
+        <v>50</v>
+      </c>
+      <c r="AX27">
+        <v>50</v>
+      </c>
+      <c r="AY27">
+        <v>50</v>
+      </c>
+      <c r="AZ27">
+        <v>50</v>
+      </c>
+      <c r="BA27">
+        <v>50</v>
+      </c>
+      <c r="BB27">
+        <v>50</v>
+      </c>
+      <c r="BC27">
+        <v>50</v>
+      </c>
+      <c r="BD27">
+        <v>50</v>
+      </c>
+      <c r="BE27">
+        <v>50</v>
+      </c>
+      <c r="BF27">
+        <v>50</v>
+      </c>
+      <c r="BG27">
+        <v>50</v>
+      </c>
+      <c r="BH27">
+        <v>50</v>
+      </c>
+      <c r="BI27">
+        <v>50</v>
+      </c>
+      <c r="BJ27">
+        <v>50</v>
+      </c>
+      <c r="BK27">
+        <v>50</v>
+      </c>
+      <c r="BL27">
+        <v>50</v>
+      </c>
+      <c r="BM27">
+        <v>55</v>
+      </c>
+      <c r="BN27">
+        <v>55</v>
+      </c>
+      <c r="BO27">
+        <v>55</v>
+      </c>
+      <c r="BP27">
+        <v>55</v>
+      </c>
+      <c r="BQ27">
+        <v>55</v>
+      </c>
+      <c r="BR27">
+        <v>55</v>
+      </c>
+      <c r="BS27">
+        <v>55</v>
+      </c>
+      <c r="BT27">
+        <v>55</v>
+      </c>
+      <c r="BU27">
+        <v>55</v>
+      </c>
+      <c r="BV27">
+        <v>55</v>
+      </c>
+      <c r="BW27">
+        <v>55</v>
+      </c>
+      <c r="BX27">
+        <v>55</v>
+      </c>
+      <c r="BY27">
+        <v>55</v>
+      </c>
+      <c r="BZ27">
+        <v>55</v>
+      </c>
+      <c r="CA27">
+        <v>55</v>
+      </c>
+      <c r="CB27">
+        <v>55</v>
+      </c>
+      <c r="CC27">
+        <v>55</v>
+      </c>
+      <c r="CD27">
+        <v>55</v>
+      </c>
+      <c r="CE27">
+        <v>55</v>
+      </c>
+      <c r="CF27">
+        <v>55</v>
+      </c>
+      <c r="CG27">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>50</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28">
+        <v>50</v>
+      </c>
+      <c r="H28">
+        <v>50</v>
+      </c>
+      <c r="I28">
+        <v>50</v>
+      </c>
+      <c r="J28">
+        <v>50</v>
+      </c>
+      <c r="K28">
+        <v>50</v>
+      </c>
+      <c r="L28">
+        <v>50</v>
+      </c>
+      <c r="M28">
+        <v>50</v>
+      </c>
+      <c r="N28">
+        <v>50</v>
+      </c>
+      <c r="O28">
+        <v>50</v>
+      </c>
+      <c r="P28">
+        <v>50</v>
+      </c>
+      <c r="Q28">
+        <v>50</v>
+      </c>
+      <c r="R28">
+        <v>50</v>
+      </c>
+      <c r="S28">
+        <v>50</v>
+      </c>
+      <c r="T28">
+        <v>50</v>
+      </c>
+      <c r="U28">
+        <v>50</v>
+      </c>
+      <c r="V28">
+        <v>50</v>
+      </c>
+      <c r="W28">
+        <v>52</v>
+      </c>
+      <c r="X28">
+        <v>52</v>
+      </c>
+      <c r="Y28">
+        <v>52</v>
+      </c>
+      <c r="Z28">
+        <v>52</v>
+      </c>
+      <c r="AA28">
+        <v>52</v>
+      </c>
+      <c r="AB28">
+        <v>52</v>
+      </c>
+      <c r="AC28">
+        <v>52</v>
+      </c>
+      <c r="AD28">
+        <v>52</v>
+      </c>
+      <c r="AE28">
+        <v>52</v>
+      </c>
+      <c r="AF28">
+        <v>52</v>
+      </c>
+      <c r="AG28">
+        <v>52</v>
+      </c>
+      <c r="AH28">
+        <v>52</v>
+      </c>
+      <c r="AI28">
+        <v>52</v>
+      </c>
+      <c r="AJ28">
+        <v>52</v>
+      </c>
+      <c r="AK28">
+        <v>52</v>
+      </c>
+      <c r="AL28">
+        <v>52</v>
+      </c>
+      <c r="AM28">
+        <v>52</v>
+      </c>
+      <c r="AN28">
+        <v>52</v>
+      </c>
+      <c r="AO28">
+        <v>52</v>
+      </c>
+      <c r="AP28">
+        <v>52</v>
+      </c>
+      <c r="AQ28">
+        <v>52</v>
+      </c>
+      <c r="AR28">
+        <v>51</v>
+      </c>
+      <c r="AS28">
+        <v>51</v>
+      </c>
+      <c r="AT28">
+        <v>51</v>
+      </c>
+      <c r="AU28">
+        <v>51</v>
+      </c>
+      <c r="AV28">
+        <v>51</v>
+      </c>
+      <c r="AW28">
+        <v>51</v>
+      </c>
+      <c r="AX28">
+        <v>51</v>
+      </c>
+      <c r="AY28">
+        <v>51</v>
+      </c>
+      <c r="AZ28">
+        <v>51</v>
+      </c>
+      <c r="BA28">
+        <v>51</v>
+      </c>
+      <c r="BB28">
+        <v>51</v>
+      </c>
+      <c r="BC28">
+        <v>51</v>
+      </c>
+      <c r="BD28">
+        <v>51</v>
+      </c>
+      <c r="BE28">
+        <v>51</v>
+      </c>
+      <c r="BF28">
+        <v>51</v>
+      </c>
+      <c r="BG28">
+        <v>51</v>
+      </c>
+      <c r="BH28">
+        <v>51</v>
+      </c>
+      <c r="BI28">
+        <v>51</v>
+      </c>
+      <c r="BJ28">
+        <v>51</v>
+      </c>
+      <c r="BK28">
+        <v>51</v>
+      </c>
+      <c r="BL28">
+        <v>51</v>
+      </c>
+      <c r="BM28">
+        <v>52</v>
+      </c>
+      <c r="BN28">
+        <v>52</v>
+      </c>
+      <c r="BO28">
+        <v>52</v>
+      </c>
+      <c r="BP28">
+        <v>52</v>
+      </c>
+      <c r="BQ28">
+        <v>52</v>
+      </c>
+      <c r="BR28">
+        <v>52</v>
+      </c>
+      <c r="BS28">
+        <v>52</v>
+      </c>
+      <c r="BT28">
+        <v>52</v>
+      </c>
+      <c r="BU28">
+        <v>52</v>
+      </c>
+      <c r="BV28">
+        <v>52</v>
+      </c>
+      <c r="BW28">
+        <v>52</v>
+      </c>
+      <c r="BX28">
+        <v>52</v>
+      </c>
+      <c r="BY28">
+        <v>52</v>
+      </c>
+      <c r="BZ28">
+        <v>52</v>
+      </c>
+      <c r="CA28">
+        <v>52</v>
+      </c>
+      <c r="CB28">
+        <v>52</v>
+      </c>
+      <c r="CC28">
+        <v>52</v>
+      </c>
+      <c r="CD28">
+        <v>52</v>
+      </c>
+      <c r="CE28">
+        <v>52</v>
+      </c>
+      <c r="CF28">
+        <v>52</v>
+      </c>
+      <c r="CG28">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>50</v>
+      </c>
+      <c r="H29">
+        <v>50</v>
+      </c>
+      <c r="I29">
+        <v>50</v>
+      </c>
+      <c r="J29">
+        <v>50</v>
+      </c>
+      <c r="K29">
+        <v>50</v>
+      </c>
+      <c r="L29">
+        <v>50</v>
+      </c>
+      <c r="M29">
+        <v>50</v>
+      </c>
+      <c r="N29">
+        <v>50</v>
+      </c>
+      <c r="O29">
+        <v>50</v>
+      </c>
+      <c r="P29">
+        <v>50</v>
+      </c>
+      <c r="Q29">
+        <v>50</v>
+      </c>
+      <c r="R29">
+        <v>50</v>
+      </c>
+      <c r="S29">
+        <v>50</v>
+      </c>
+      <c r="T29">
+        <v>50</v>
+      </c>
+      <c r="U29">
+        <v>50</v>
+      </c>
+      <c r="V29">
+        <v>50</v>
+      </c>
+      <c r="W29">
+        <v>52</v>
+      </c>
+      <c r="X29">
+        <v>52</v>
+      </c>
+      <c r="Y29">
+        <v>52</v>
+      </c>
+      <c r="Z29">
+        <v>52</v>
+      </c>
+      <c r="AA29">
+        <v>52</v>
+      </c>
+      <c r="AB29">
+        <v>52</v>
+      </c>
+      <c r="AC29">
+        <v>52</v>
+      </c>
+      <c r="AD29">
+        <v>52</v>
+      </c>
+      <c r="AE29">
+        <v>52</v>
+      </c>
+      <c r="AF29">
+        <v>52</v>
+      </c>
+      <c r="AG29">
+        <v>52</v>
+      </c>
+      <c r="AH29">
+        <v>52</v>
+      </c>
+      <c r="AI29">
+        <v>52</v>
+      </c>
+      <c r="AJ29">
+        <v>52</v>
+      </c>
+      <c r="AK29">
+        <v>52</v>
+      </c>
+      <c r="AL29">
+        <v>52</v>
+      </c>
+      <c r="AM29">
+        <v>52</v>
+      </c>
+      <c r="AN29">
+        <v>52</v>
+      </c>
+      <c r="AO29">
+        <v>52</v>
+      </c>
+      <c r="AP29">
+        <v>52</v>
+      </c>
+      <c r="AQ29">
+        <v>52</v>
+      </c>
+      <c r="AR29">
+        <v>51</v>
+      </c>
+      <c r="AS29">
+        <v>51</v>
+      </c>
+      <c r="AT29">
+        <v>51</v>
+      </c>
+      <c r="AU29">
+        <v>51</v>
+      </c>
+      <c r="AV29">
+        <v>51</v>
+      </c>
+      <c r="AW29">
+        <v>51</v>
+      </c>
+      <c r="AX29">
+        <v>51</v>
+      </c>
+      <c r="AY29">
+        <v>51</v>
+      </c>
+      <c r="AZ29">
+        <v>51</v>
+      </c>
+      <c r="BA29">
+        <v>51</v>
+      </c>
+      <c r="BB29">
+        <v>51</v>
+      </c>
+      <c r="BC29">
+        <v>51</v>
+      </c>
+      <c r="BD29">
+        <v>51</v>
+      </c>
+      <c r="BE29">
+        <v>51</v>
+      </c>
+      <c r="BF29">
+        <v>51</v>
+      </c>
+      <c r="BG29">
+        <v>51</v>
+      </c>
+      <c r="BH29">
+        <v>51</v>
+      </c>
+      <c r="BI29">
+        <v>51</v>
+      </c>
+      <c r="BJ29">
+        <v>51</v>
+      </c>
+      <c r="BK29">
+        <v>51</v>
+      </c>
+      <c r="BL29">
+        <v>51</v>
+      </c>
+      <c r="BM29">
+        <v>53</v>
+      </c>
+      <c r="BN29">
+        <v>53</v>
+      </c>
+      <c r="BO29">
+        <v>53</v>
+      </c>
+      <c r="BP29">
+        <v>53</v>
+      </c>
+      <c r="BQ29">
+        <v>53</v>
+      </c>
+      <c r="BR29">
+        <v>53</v>
+      </c>
+      <c r="BS29">
+        <v>53</v>
+      </c>
+      <c r="BT29">
+        <v>53</v>
+      </c>
+      <c r="BU29">
+        <v>53</v>
+      </c>
+      <c r="BV29">
+        <v>53</v>
+      </c>
+      <c r="BW29">
+        <v>53</v>
+      </c>
+      <c r="BX29">
+        <v>53</v>
+      </c>
+      <c r="BY29">
+        <v>53</v>
+      </c>
+      <c r="BZ29">
+        <v>53</v>
+      </c>
+      <c r="CA29">
+        <v>53</v>
+      </c>
+      <c r="CB29">
+        <v>53</v>
+      </c>
+      <c r="CC29">
+        <v>53</v>
+      </c>
+      <c r="CD29">
+        <v>53</v>
+      </c>
+      <c r="CE29">
+        <v>53</v>
+      </c>
+      <c r="CF29">
+        <v>53</v>
+      </c>
+      <c r="CG29">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30">
+        <v>50</v>
+      </c>
+      <c r="E30">
+        <v>50</v>
+      </c>
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30">
+        <v>50</v>
+      </c>
+      <c r="H30">
+        <v>50</v>
+      </c>
+      <c r="I30">
+        <v>50</v>
+      </c>
+      <c r="J30">
+        <v>50</v>
+      </c>
+      <c r="K30">
+        <v>50</v>
+      </c>
+      <c r="L30">
+        <v>50</v>
+      </c>
+      <c r="M30">
+        <v>50</v>
+      </c>
+      <c r="N30">
+        <v>50</v>
+      </c>
+      <c r="O30">
+        <v>50</v>
+      </c>
+      <c r="P30">
+        <v>50</v>
+      </c>
+      <c r="Q30">
+        <v>50</v>
+      </c>
+      <c r="R30">
+        <v>50</v>
+      </c>
+      <c r="S30">
+        <v>50</v>
+      </c>
+      <c r="T30">
+        <v>50</v>
+      </c>
+      <c r="U30">
+        <v>50</v>
+      </c>
+      <c r="V30">
+        <v>50</v>
+      </c>
+      <c r="W30">
+        <v>50</v>
+      </c>
+      <c r="X30">
+        <v>50</v>
+      </c>
+      <c r="Y30">
+        <v>50</v>
+      </c>
+      <c r="Z30">
+        <v>50</v>
+      </c>
+      <c r="AA30">
+        <v>50</v>
+      </c>
+      <c r="AB30">
+        <v>50</v>
+      </c>
+      <c r="AC30">
+        <v>50</v>
+      </c>
+      <c r="AD30">
+        <v>50</v>
+      </c>
+      <c r="AE30">
+        <v>50</v>
+      </c>
+      <c r="AF30">
+        <v>50</v>
+      </c>
+      <c r="AG30">
+        <v>50</v>
+      </c>
+      <c r="AH30">
+        <v>50</v>
+      </c>
+      <c r="AI30">
+        <v>50</v>
+      </c>
+      <c r="AJ30">
+        <v>50</v>
+      </c>
+      <c r="AK30">
+        <v>50</v>
+      </c>
+      <c r="AL30">
+        <v>50</v>
+      </c>
+      <c r="AM30">
+        <v>50</v>
+      </c>
+      <c r="AN30">
+        <v>50</v>
+      </c>
+      <c r="AO30">
+        <v>50</v>
+      </c>
+      <c r="AP30">
+        <v>50</v>
+      </c>
+      <c r="AQ30">
+        <v>50</v>
+      </c>
+      <c r="AR30">
+        <v>47</v>
+      </c>
+      <c r="AS30">
+        <v>47</v>
+      </c>
+      <c r="AT30">
+        <v>47</v>
+      </c>
+      <c r="AU30">
+        <v>47</v>
+      </c>
+      <c r="AV30">
+        <v>47</v>
+      </c>
+      <c r="AW30">
+        <v>47</v>
+      </c>
+      <c r="AX30">
+        <v>47</v>
+      </c>
+      <c r="AY30">
+        <v>47</v>
+      </c>
+      <c r="AZ30">
+        <v>47</v>
+      </c>
+      <c r="BA30">
+        <v>47</v>
+      </c>
+      <c r="BB30">
+        <v>47</v>
+      </c>
+      <c r="BC30">
+        <v>47</v>
+      </c>
+      <c r="BD30">
+        <v>47</v>
+      </c>
+      <c r="BE30">
+        <v>47</v>
+      </c>
+      <c r="BF30">
+        <v>47</v>
+      </c>
+      <c r="BG30">
+        <v>47</v>
+      </c>
+      <c r="BH30">
+        <v>47</v>
+      </c>
+      <c r="BI30">
+        <v>47</v>
+      </c>
+      <c r="BJ30">
+        <v>47</v>
+      </c>
+      <c r="BK30">
+        <v>47</v>
+      </c>
+      <c r="BL30">
+        <v>47</v>
+      </c>
+      <c r="BM30">
+        <v>49</v>
+      </c>
+      <c r="BN30">
+        <v>49</v>
+      </c>
+      <c r="BO30">
+        <v>49</v>
+      </c>
+      <c r="BP30">
+        <v>49</v>
+      </c>
+      <c r="BQ30">
+        <v>49</v>
+      </c>
+      <c r="BR30">
+        <v>49</v>
+      </c>
+      <c r="BS30">
+        <v>49</v>
+      </c>
+      <c r="BT30">
+        <v>49</v>
+      </c>
+      <c r="BU30">
+        <v>49</v>
+      </c>
+      <c r="BV30">
+        <v>49</v>
+      </c>
+      <c r="BW30">
+        <v>49</v>
+      </c>
+      <c r="BX30">
+        <v>49</v>
+      </c>
+      <c r="BY30">
+        <v>49</v>
+      </c>
+      <c r="BZ30">
+        <v>49</v>
+      </c>
+      <c r="CA30">
+        <v>49</v>
+      </c>
+      <c r="CB30">
+        <v>49</v>
+      </c>
+      <c r="CC30">
+        <v>49</v>
+      </c>
+      <c r="CD30">
+        <v>49</v>
+      </c>
+      <c r="CE30">
+        <v>49</v>
+      </c>
+      <c r="CF30">
+        <v>49</v>
+      </c>
+      <c r="CG30">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31">
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <v>50</v>
+      </c>
+      <c r="D31">
+        <v>50</v>
+      </c>
+      <c r="E31">
+        <v>50</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31">
+        <v>50</v>
+      </c>
+      <c r="H31">
+        <v>50</v>
+      </c>
+      <c r="I31">
+        <v>50</v>
+      </c>
+      <c r="J31">
+        <v>50</v>
+      </c>
+      <c r="K31">
+        <v>50</v>
+      </c>
+      <c r="L31">
+        <v>50</v>
+      </c>
+      <c r="M31">
+        <v>50</v>
+      </c>
+      <c r="N31">
+        <v>50</v>
+      </c>
+      <c r="O31">
+        <v>50</v>
+      </c>
+      <c r="P31">
+        <v>50</v>
+      </c>
+      <c r="Q31">
+        <v>50</v>
+      </c>
+      <c r="R31">
+        <v>50</v>
+      </c>
+      <c r="S31">
+        <v>50</v>
+      </c>
+      <c r="T31">
+        <v>50</v>
+      </c>
+      <c r="U31">
+        <v>50</v>
+      </c>
+      <c r="V31">
+        <v>50</v>
+      </c>
+      <c r="W31">
+        <v>50</v>
+      </c>
+      <c r="X31">
+        <v>50</v>
+      </c>
+      <c r="Y31">
+        <v>50</v>
+      </c>
+      <c r="Z31">
+        <v>50</v>
+      </c>
+      <c r="AA31">
+        <v>50</v>
+      </c>
+      <c r="AB31">
+        <v>50</v>
+      </c>
+      <c r="AC31">
+        <v>50</v>
+      </c>
+      <c r="AD31">
+        <v>50</v>
+      </c>
+      <c r="AE31">
+        <v>50</v>
+      </c>
+      <c r="AF31">
+        <v>50</v>
+      </c>
+      <c r="AG31">
+        <v>50</v>
+      </c>
+      <c r="AH31">
+        <v>50</v>
+      </c>
+      <c r="AI31">
+        <v>50</v>
+      </c>
+      <c r="AJ31">
+        <v>50</v>
+      </c>
+      <c r="AK31">
+        <v>50</v>
+      </c>
+      <c r="AL31">
+        <v>50</v>
+      </c>
+      <c r="AM31">
+        <v>50</v>
+      </c>
+      <c r="AN31">
+        <v>50</v>
+      </c>
+      <c r="AO31">
+        <v>50</v>
+      </c>
+      <c r="AP31">
+        <v>50</v>
+      </c>
+      <c r="AQ31">
+        <v>50</v>
+      </c>
+      <c r="AR31">
+        <v>47</v>
+      </c>
+      <c r="AS31">
+        <v>47</v>
+      </c>
+      <c r="AT31">
+        <v>47</v>
+      </c>
+      <c r="AU31">
+        <v>47</v>
+      </c>
+      <c r="AV31">
+        <v>47</v>
+      </c>
+      <c r="AW31">
+        <v>47</v>
+      </c>
+      <c r="AX31">
+        <v>47</v>
+      </c>
+      <c r="AY31">
+        <v>47</v>
+      </c>
+      <c r="AZ31">
+        <v>47</v>
+      </c>
+      <c r="BA31">
+        <v>47</v>
+      </c>
+      <c r="BB31">
+        <v>47</v>
+      </c>
+      <c r="BC31">
+        <v>47</v>
+      </c>
+      <c r="BD31">
+        <v>47</v>
+      </c>
+      <c r="BE31">
+        <v>47</v>
+      </c>
+      <c r="BF31">
+        <v>47</v>
+      </c>
+      <c r="BG31">
+        <v>47</v>
+      </c>
+      <c r="BH31">
+        <v>47</v>
+      </c>
+      <c r="BI31">
+        <v>47</v>
+      </c>
+      <c r="BJ31">
+        <v>47</v>
+      </c>
+      <c r="BK31">
+        <v>47</v>
+      </c>
+      <c r="BL31">
+        <v>47</v>
+      </c>
+      <c r="BM31">
+        <v>50</v>
+      </c>
+      <c r="BN31">
+        <v>50</v>
+      </c>
+      <c r="BO31">
+        <v>50</v>
+      </c>
+      <c r="BP31">
+        <v>50</v>
+      </c>
+      <c r="BQ31">
+        <v>50</v>
+      </c>
+      <c r="BR31">
+        <v>50</v>
+      </c>
+      <c r="BS31">
+        <v>50</v>
+      </c>
+      <c r="BT31">
+        <v>50</v>
+      </c>
+      <c r="BU31">
+        <v>50</v>
+      </c>
+      <c r="BV31">
+        <v>50</v>
+      </c>
+      <c r="BW31">
+        <v>50</v>
+      </c>
+      <c r="BX31">
+        <v>50</v>
+      </c>
+      <c r="BY31">
+        <v>50</v>
+      </c>
+      <c r="BZ31">
+        <v>50</v>
+      </c>
+      <c r="CA31">
+        <v>50</v>
+      </c>
+      <c r="CB31">
+        <v>50</v>
+      </c>
+      <c r="CC31">
+        <v>50</v>
+      </c>
+      <c r="CD31">
+        <v>50</v>
+      </c>
+      <c r="CE31">
+        <v>50</v>
+      </c>
+      <c r="CF31">
+        <v>50</v>
+      </c>
+      <c r="CG31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <v>50</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
+      </c>
+      <c r="E32">
+        <v>50</v>
+      </c>
+      <c r="F32">
+        <v>50</v>
+      </c>
+      <c r="G32">
+        <v>50</v>
+      </c>
+      <c r="H32">
+        <v>50</v>
+      </c>
+      <c r="I32">
+        <v>50</v>
+      </c>
+      <c r="J32">
+        <v>50</v>
+      </c>
+      <c r="K32">
+        <v>50</v>
+      </c>
+      <c r="L32">
+        <v>50</v>
+      </c>
+      <c r="M32">
+        <v>50</v>
+      </c>
+      <c r="N32">
+        <v>50</v>
+      </c>
+      <c r="O32">
+        <v>50</v>
+      </c>
+      <c r="P32">
+        <v>50</v>
+      </c>
+      <c r="Q32">
+        <v>50</v>
+      </c>
+      <c r="R32">
+        <v>50</v>
+      </c>
+      <c r="S32">
+        <v>50</v>
+      </c>
+      <c r="T32">
+        <v>50</v>
+      </c>
+      <c r="U32">
+        <v>50</v>
+      </c>
+      <c r="V32">
+        <v>50</v>
+      </c>
+      <c r="W32">
+        <v>50</v>
+      </c>
+      <c r="X32">
+        <v>50</v>
+      </c>
+      <c r="Y32">
+        <v>50</v>
+      </c>
+      <c r="Z32">
+        <v>50</v>
+      </c>
+      <c r="AA32">
+        <v>50</v>
+      </c>
+      <c r="AB32">
+        <v>50</v>
+      </c>
+      <c r="AC32">
+        <v>50</v>
+      </c>
+      <c r="AD32">
+        <v>50</v>
+      </c>
+      <c r="AE32">
+        <v>50</v>
+      </c>
+      <c r="AF32">
+        <v>50</v>
+      </c>
+      <c r="AG32">
+        <v>50</v>
+      </c>
+      <c r="AH32">
+        <v>50</v>
+      </c>
+      <c r="AI32">
+        <v>50</v>
+      </c>
+      <c r="AJ32">
+        <v>50</v>
+      </c>
+      <c r="AK32">
+        <v>50</v>
+      </c>
+      <c r="AL32">
+        <v>50</v>
+      </c>
+      <c r="AM32">
+        <v>50</v>
+      </c>
+      <c r="AN32">
+        <v>50</v>
+      </c>
+      <c r="AO32">
+        <v>50</v>
+      </c>
+      <c r="AP32">
+        <v>50</v>
+      </c>
+      <c r="AQ32">
+        <v>50</v>
+      </c>
+      <c r="AR32">
+        <v>48</v>
+      </c>
+      <c r="AS32">
+        <v>48</v>
+      </c>
+      <c r="AT32">
+        <v>48</v>
+      </c>
+      <c r="AU32">
+        <v>48</v>
+      </c>
+      <c r="AV32">
+        <v>48</v>
+      </c>
+      <c r="AW32">
+        <v>48</v>
+      </c>
+      <c r="AX32">
+        <v>48</v>
+      </c>
+      <c r="AY32">
+        <v>48</v>
+      </c>
+      <c r="AZ32">
+        <v>48</v>
+      </c>
+      <c r="BA32">
+        <v>48</v>
+      </c>
+      <c r="BB32">
+        <v>48</v>
+      </c>
+      <c r="BC32">
+        <v>48</v>
+      </c>
+      <c r="BD32">
+        <v>48</v>
+      </c>
+      <c r="BE32">
+        <v>48</v>
+      </c>
+      <c r="BF32">
+        <v>48</v>
+      </c>
+      <c r="BG32">
+        <v>48</v>
+      </c>
+      <c r="BH32">
+        <v>48</v>
+      </c>
+      <c r="BI32">
+        <v>48</v>
+      </c>
+      <c r="BJ32">
+        <v>48</v>
+      </c>
+      <c r="BK32">
+        <v>48</v>
+      </c>
+      <c r="BL32">
+        <v>48</v>
+      </c>
+      <c r="BM32">
+        <v>50</v>
+      </c>
+      <c r="BN32">
+        <v>50</v>
+      </c>
+      <c r="BO32">
+        <v>50</v>
+      </c>
+      <c r="BP32">
+        <v>50</v>
+      </c>
+      <c r="BQ32">
+        <v>50</v>
+      </c>
+      <c r="BR32">
+        <v>50</v>
+      </c>
+      <c r="BS32">
+        <v>50</v>
+      </c>
+      <c r="BT32">
+        <v>50</v>
+      </c>
+      <c r="BU32">
+        <v>50</v>
+      </c>
+      <c r="BV32">
+        <v>50</v>
+      </c>
+      <c r="BW32">
+        <v>50</v>
+      </c>
+      <c r="BX32">
+        <v>50</v>
+      </c>
+      <c r="BY32">
+        <v>50</v>
+      </c>
+      <c r="BZ32">
+        <v>50</v>
+      </c>
+      <c r="CA32">
+        <v>50</v>
+      </c>
+      <c r="CB32">
+        <v>50</v>
+      </c>
+      <c r="CC32">
+        <v>50</v>
+      </c>
+      <c r="CD32">
+        <v>50</v>
+      </c>
+      <c r="CE32">
+        <v>50</v>
+      </c>
+      <c r="CF32">
+        <v>50</v>
+      </c>
+      <c r="CG32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>50</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <v>50</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33">
+        <v>50</v>
+      </c>
+      <c r="H33">
+        <v>50</v>
+      </c>
+      <c r="I33">
+        <v>50</v>
+      </c>
+      <c r="J33">
+        <v>50</v>
+      </c>
+      <c r="K33">
+        <v>50</v>
+      </c>
+      <c r="L33">
+        <v>50</v>
+      </c>
+      <c r="M33">
+        <v>50</v>
+      </c>
+      <c r="N33">
+        <v>50</v>
+      </c>
+      <c r="O33">
+        <v>50</v>
+      </c>
+      <c r="P33">
+        <v>50</v>
+      </c>
+      <c r="Q33">
+        <v>50</v>
+      </c>
+      <c r="R33">
+        <v>50</v>
+      </c>
+      <c r="S33">
+        <v>50</v>
+      </c>
+      <c r="T33">
+        <v>50</v>
+      </c>
+      <c r="U33">
+        <v>50</v>
+      </c>
+      <c r="V33">
+        <v>50</v>
+      </c>
+      <c r="W33">
+        <v>50</v>
+      </c>
+      <c r="X33">
+        <v>50</v>
+      </c>
+      <c r="Y33">
+        <v>50</v>
+      </c>
+      <c r="Z33">
+        <v>50</v>
+      </c>
+      <c r="AA33">
+        <v>50</v>
+      </c>
+      <c r="AB33">
+        <v>50</v>
+      </c>
+      <c r="AC33">
+        <v>50</v>
+      </c>
+      <c r="AD33">
+        <v>50</v>
+      </c>
+      <c r="AE33">
+        <v>50</v>
+      </c>
+      <c r="AF33">
+        <v>50</v>
+      </c>
+      <c r="AG33">
+        <v>50</v>
+      </c>
+      <c r="AH33">
+        <v>50</v>
+      </c>
+      <c r="AI33">
+        <v>50</v>
+      </c>
+      <c r="AJ33">
+        <v>50</v>
+      </c>
+      <c r="AK33">
+        <v>50</v>
+      </c>
+      <c r="AL33">
+        <v>50</v>
+      </c>
+      <c r="AM33">
+        <v>50</v>
+      </c>
+      <c r="AN33">
+        <v>50</v>
+      </c>
+      <c r="AO33">
+        <v>50</v>
+      </c>
+      <c r="AP33">
+        <v>50</v>
+      </c>
+      <c r="AQ33">
+        <v>50</v>
+      </c>
+      <c r="AR33">
+        <v>48</v>
+      </c>
+      <c r="AS33">
+        <v>48</v>
+      </c>
+      <c r="AT33">
+        <v>48</v>
+      </c>
+      <c r="AU33">
+        <v>48</v>
+      </c>
+      <c r="AV33">
+        <v>48</v>
+      </c>
+      <c r="AW33">
+        <v>48</v>
+      </c>
+      <c r="AX33">
+        <v>48</v>
+      </c>
+      <c r="AY33">
+        <v>48</v>
+      </c>
+      <c r="AZ33">
+        <v>48</v>
+      </c>
+      <c r="BA33">
+        <v>48</v>
+      </c>
+      <c r="BB33">
+        <v>48</v>
+      </c>
+      <c r="BC33">
+        <v>48</v>
+      </c>
+      <c r="BD33">
+        <v>48</v>
+      </c>
+      <c r="BE33">
+        <v>48</v>
+      </c>
+      <c r="BF33">
+        <v>48</v>
+      </c>
+      <c r="BG33">
+        <v>48</v>
+      </c>
+      <c r="BH33">
+        <v>48</v>
+      </c>
+      <c r="BI33">
+        <v>48</v>
+      </c>
+      <c r="BJ33">
+        <v>48</v>
+      </c>
+      <c r="BK33">
+        <v>48</v>
+      </c>
+      <c r="BL33">
+        <v>48</v>
+      </c>
+      <c r="BM33">
+        <v>53</v>
+      </c>
+      <c r="BN33">
+        <v>53</v>
+      </c>
+      <c r="BO33">
+        <v>53</v>
+      </c>
+      <c r="BP33">
+        <v>53</v>
+      </c>
+      <c r="BQ33">
+        <v>53</v>
+      </c>
+      <c r="BR33">
+        <v>53</v>
+      </c>
+      <c r="BS33">
+        <v>53</v>
+      </c>
+      <c r="BT33">
+        <v>53</v>
+      </c>
+      <c r="BU33">
+        <v>53</v>
+      </c>
+      <c r="BV33">
+        <v>53</v>
+      </c>
+      <c r="BW33">
+        <v>53</v>
+      </c>
+      <c r="BX33">
+        <v>53</v>
+      </c>
+      <c r="BY33">
+        <v>53</v>
+      </c>
+      <c r="BZ33">
+        <v>53</v>
+      </c>
+      <c r="CA33">
+        <v>53</v>
+      </c>
+      <c r="CB33">
+        <v>53</v>
+      </c>
+      <c r="CC33">
+        <v>53</v>
+      </c>
+      <c r="CD33">
+        <v>53</v>
+      </c>
+      <c r="CE33">
+        <v>53</v>
+      </c>
+      <c r="CF33">
+        <v>53</v>
+      </c>
+      <c r="CG33">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34">
+        <v>44</v>
+      </c>
+      <c r="C34">
+        <v>44</v>
+      </c>
+      <c r="D34">
+        <v>44</v>
+      </c>
+      <c r="E34">
+        <v>44</v>
+      </c>
+      <c r="F34">
+        <v>44</v>
+      </c>
+      <c r="G34">
+        <v>44</v>
+      </c>
+      <c r="H34">
+        <v>44</v>
+      </c>
+      <c r="I34">
+        <v>44</v>
+      </c>
+      <c r="J34">
+        <v>44</v>
+      </c>
+      <c r="K34">
+        <v>44</v>
+      </c>
+      <c r="L34">
+        <v>44</v>
+      </c>
+      <c r="M34">
+        <v>44</v>
+      </c>
+      <c r="N34">
+        <v>44</v>
+      </c>
+      <c r="O34">
+        <v>44</v>
+      </c>
+      <c r="P34">
+        <v>44</v>
+      </c>
+      <c r="Q34">
+        <v>44</v>
+      </c>
+      <c r="R34">
+        <v>44</v>
+      </c>
+      <c r="S34">
+        <v>44</v>
+      </c>
+      <c r="T34">
+        <v>44</v>
+      </c>
+      <c r="U34">
+        <v>44</v>
+      </c>
+      <c r="V34">
+        <v>44</v>
+      </c>
+      <c r="W34">
+        <v>47</v>
+      </c>
+      <c r="X34">
+        <v>47</v>
+      </c>
+      <c r="Y34">
+        <v>47</v>
+      </c>
+      <c r="Z34">
+        <v>47</v>
+      </c>
+      <c r="AA34">
+        <v>47</v>
+      </c>
+      <c r="AB34">
+        <v>47</v>
+      </c>
+      <c r="AC34">
+        <v>47</v>
+      </c>
+      <c r="AD34">
+        <v>47</v>
+      </c>
+      <c r="AE34">
+        <v>47</v>
+      </c>
+      <c r="AF34">
+        <v>47</v>
+      </c>
+      <c r="AG34">
+        <v>47</v>
+      </c>
+      <c r="AH34">
+        <v>47</v>
+      </c>
+      <c r="AI34">
+        <v>47</v>
+      </c>
+      <c r="AJ34">
+        <v>47</v>
+      </c>
+      <c r="AK34">
+        <v>47</v>
+      </c>
+      <c r="AL34">
+        <v>47</v>
+      </c>
+      <c r="AM34">
+        <v>47</v>
+      </c>
+      <c r="AN34">
+        <v>47</v>
+      </c>
+      <c r="AO34">
+        <v>47</v>
+      </c>
+      <c r="AP34">
+        <v>47</v>
+      </c>
+      <c r="AQ34">
+        <v>47</v>
+      </c>
+      <c r="AR34">
+        <v>45</v>
+      </c>
+      <c r="AS34">
+        <v>45</v>
+      </c>
+      <c r="AT34">
+        <v>45</v>
+      </c>
+      <c r="AU34">
+        <v>45</v>
+      </c>
+      <c r="AV34">
+        <v>45</v>
+      </c>
+      <c r="AW34">
+        <v>45</v>
+      </c>
+      <c r="AX34">
+        <v>45</v>
+      </c>
+      <c r="AY34">
+        <v>45</v>
+      </c>
+      <c r="AZ34">
+        <v>45</v>
+      </c>
+      <c r="BA34">
+        <v>45</v>
+      </c>
+      <c r="BB34">
+        <v>45</v>
+      </c>
+      <c r="BC34">
+        <v>45</v>
+      </c>
+      <c r="BD34">
+        <v>45</v>
+      </c>
+      <c r="BE34">
+        <v>45</v>
+      </c>
+      <c r="BF34">
+        <v>45</v>
+      </c>
+      <c r="BG34">
+        <v>45</v>
+      </c>
+      <c r="BH34">
+        <v>45</v>
+      </c>
+      <c r="BI34">
+        <v>45</v>
+      </c>
+      <c r="BJ34">
+        <v>45</v>
+      </c>
+      <c r="BK34">
+        <v>45</v>
+      </c>
+      <c r="BL34">
+        <v>45</v>
+      </c>
+      <c r="BM34">
+        <v>45</v>
+      </c>
+      <c r="BN34">
+        <v>45</v>
+      </c>
+      <c r="BO34">
+        <v>45</v>
+      </c>
+      <c r="BP34">
+        <v>45</v>
+      </c>
+      <c r="BQ34">
+        <v>45</v>
+      </c>
+      <c r="BR34">
+        <v>45</v>
+      </c>
+      <c r="BS34">
+        <v>45</v>
+      </c>
+      <c r="BT34">
+        <v>45</v>
+      </c>
+      <c r="BU34">
+        <v>45</v>
+      </c>
+      <c r="BV34">
+        <v>45</v>
+      </c>
+      <c r="BW34">
+        <v>45</v>
+      </c>
+      <c r="BX34">
+        <v>45</v>
+      </c>
+      <c r="BY34">
+        <v>45</v>
+      </c>
+      <c r="BZ34">
+        <v>45</v>
+      </c>
+      <c r="CA34">
+        <v>45</v>
+      </c>
+      <c r="CB34">
+        <v>45</v>
+      </c>
+      <c r="CC34">
+        <v>45</v>
+      </c>
+      <c r="CD34">
+        <v>45</v>
+      </c>
+      <c r="CE34">
+        <v>45</v>
+      </c>
+      <c r="CF34">
+        <v>45</v>
+      </c>
+      <c r="CG34">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35">
+        <v>44</v>
+      </c>
+      <c r="C35">
+        <v>44</v>
+      </c>
+      <c r="D35">
+        <v>44</v>
+      </c>
+      <c r="E35">
+        <v>44</v>
+      </c>
+      <c r="F35">
+        <v>44</v>
+      </c>
+      <c r="G35">
+        <v>44</v>
+      </c>
+      <c r="H35">
+        <v>44</v>
+      </c>
+      <c r="I35">
+        <v>44</v>
+      </c>
+      <c r="J35">
+        <v>44</v>
+      </c>
+      <c r="K35">
+        <v>44</v>
+      </c>
+      <c r="L35">
+        <v>44</v>
+      </c>
+      <c r="M35">
+        <v>44</v>
+      </c>
+      <c r="N35">
+        <v>44</v>
+      </c>
+      <c r="O35">
+        <v>44</v>
+      </c>
+      <c r="P35">
+        <v>44</v>
+      </c>
+      <c r="Q35">
+        <v>44</v>
+      </c>
+      <c r="R35">
+        <v>44</v>
+      </c>
+      <c r="S35">
+        <v>44</v>
+      </c>
+      <c r="T35">
+        <v>44</v>
+      </c>
+      <c r="U35">
+        <v>44</v>
+      </c>
+      <c r="V35">
+        <v>44</v>
+      </c>
+      <c r="W35">
+        <v>47</v>
+      </c>
+      <c r="X35">
+        <v>47</v>
+      </c>
+      <c r="Y35">
+        <v>47</v>
+      </c>
+      <c r="Z35">
+        <v>47</v>
+      </c>
+      <c r="AA35">
+        <v>47</v>
+      </c>
+      <c r="AB35">
+        <v>47</v>
+      </c>
+      <c r="AC35">
+        <v>47</v>
+      </c>
+      <c r="AD35">
+        <v>47</v>
+      </c>
+      <c r="AE35">
+        <v>47</v>
+      </c>
+      <c r="AF35">
+        <v>47</v>
+      </c>
+      <c r="AG35">
+        <v>47</v>
+      </c>
+      <c r="AH35">
+        <v>47</v>
+      </c>
+      <c r="AI35">
+        <v>47</v>
+      </c>
+      <c r="AJ35">
+        <v>47</v>
+      </c>
+      <c r="AK35">
+        <v>47</v>
+      </c>
+      <c r="AL35">
+        <v>47</v>
+      </c>
+      <c r="AM35">
+        <v>47</v>
+      </c>
+      <c r="AN35">
+        <v>47</v>
+      </c>
+      <c r="AO35">
+        <v>47</v>
+      </c>
+      <c r="AP35">
+        <v>47</v>
+      </c>
+      <c r="AQ35">
+        <v>47</v>
+      </c>
+      <c r="AR35">
+        <v>45</v>
+      </c>
+      <c r="AS35">
+        <v>45</v>
+      </c>
+      <c r="AT35">
+        <v>45</v>
+      </c>
+      <c r="AU35">
+        <v>45</v>
+      </c>
+      <c r="AV35">
+        <v>45</v>
+      </c>
+      <c r="AW35">
+        <v>45</v>
+      </c>
+      <c r="AX35">
+        <v>45</v>
+      </c>
+      <c r="AY35">
+        <v>45</v>
+      </c>
+      <c r="AZ35">
+        <v>45</v>
+      </c>
+      <c r="BA35">
+        <v>45</v>
+      </c>
+      <c r="BB35">
+        <v>45</v>
+      </c>
+      <c r="BC35">
+        <v>45</v>
+      </c>
+      <c r="BD35">
+        <v>45</v>
+      </c>
+      <c r="BE35">
+        <v>45</v>
+      </c>
+      <c r="BF35">
+        <v>45</v>
+      </c>
+      <c r="BG35">
+        <v>45</v>
+      </c>
+      <c r="BH35">
+        <v>45</v>
+      </c>
+      <c r="BI35">
+        <v>45</v>
+      </c>
+      <c r="BJ35">
+        <v>45</v>
+      </c>
+      <c r="BK35">
+        <v>45</v>
+      </c>
+      <c r="BL35">
+        <v>45</v>
+      </c>
+      <c r="BM35">
+        <v>47</v>
+      </c>
+      <c r="BN35">
+        <v>47</v>
+      </c>
+      <c r="BO35">
+        <v>47</v>
+      </c>
+      <c r="BP35">
+        <v>47</v>
+      </c>
+      <c r="BQ35">
+        <v>47</v>
+      </c>
+      <c r="BR35">
+        <v>47</v>
+      </c>
+      <c r="BS35">
+        <v>47</v>
+      </c>
+      <c r="BT35">
+        <v>47</v>
+      </c>
+      <c r="BU35">
+        <v>47</v>
+      </c>
+      <c r="BV35">
+        <v>47</v>
+      </c>
+      <c r="BW35">
+        <v>47</v>
+      </c>
+      <c r="BX35">
+        <v>47</v>
+      </c>
+      <c r="BY35">
+        <v>47</v>
+      </c>
+      <c r="BZ35">
+        <v>47</v>
+      </c>
+      <c r="CA35">
+        <v>47</v>
+      </c>
+      <c r="CB35">
+        <v>47</v>
+      </c>
+      <c r="CC35">
+        <v>47</v>
+      </c>
+      <c r="CD35">
+        <v>47</v>
+      </c>
+      <c r="CE35">
+        <v>47</v>
+      </c>
+      <c r="CF35">
+        <v>47</v>
+      </c>
+      <c r="CG35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36">
+        <v>44</v>
+      </c>
+      <c r="C36">
+        <v>44</v>
+      </c>
+      <c r="D36">
+        <v>44</v>
+      </c>
+      <c r="E36">
+        <v>44</v>
+      </c>
+      <c r="F36">
+        <v>44</v>
+      </c>
+      <c r="G36">
+        <v>44</v>
+      </c>
+      <c r="H36">
+        <v>44</v>
+      </c>
+      <c r="I36">
+        <v>44</v>
+      </c>
+      <c r="J36">
+        <v>44</v>
+      </c>
+      <c r="K36">
+        <v>44</v>
+      </c>
+      <c r="L36">
+        <v>44</v>
+      </c>
+      <c r="M36">
+        <v>44</v>
+      </c>
+      <c r="N36">
+        <v>44</v>
+      </c>
+      <c r="O36">
+        <v>44</v>
+      </c>
+      <c r="P36">
+        <v>44</v>
+      </c>
+      <c r="Q36">
+        <v>44</v>
+      </c>
+      <c r="R36">
+        <v>44</v>
+      </c>
+      <c r="S36">
+        <v>44</v>
+      </c>
+      <c r="T36">
+        <v>44</v>
+      </c>
+      <c r="U36">
+        <v>44</v>
+      </c>
+      <c r="V36">
+        <v>44</v>
+      </c>
+      <c r="W36">
+        <v>47</v>
+      </c>
+      <c r="X36">
+        <v>47</v>
+      </c>
+      <c r="Y36">
+        <v>47</v>
+      </c>
+      <c r="Z36">
+        <v>47</v>
+      </c>
+      <c r="AA36">
+        <v>47</v>
+      </c>
+      <c r="AB36">
+        <v>47</v>
+      </c>
+      <c r="AC36">
+        <v>47</v>
+      </c>
+      <c r="AD36">
+        <v>47</v>
+      </c>
+      <c r="AE36">
+        <v>47</v>
+      </c>
+      <c r="AF36">
+        <v>47</v>
+      </c>
+      <c r="AG36">
+        <v>47</v>
+      </c>
+      <c r="AH36">
+        <v>47</v>
+      </c>
+      <c r="AI36">
+        <v>47</v>
+      </c>
+      <c r="AJ36">
+        <v>47</v>
+      </c>
+      <c r="AK36">
+        <v>47</v>
+      </c>
+      <c r="AL36">
+        <v>47</v>
+      </c>
+      <c r="AM36">
+        <v>47</v>
+      </c>
+      <c r="AN36">
+        <v>47</v>
+      </c>
+      <c r="AO36">
+        <v>47</v>
+      </c>
+      <c r="AP36">
+        <v>47</v>
+      </c>
+      <c r="AQ36">
+        <v>47</v>
+      </c>
+      <c r="AR36">
+        <v>46</v>
+      </c>
+      <c r="AS36">
+        <v>46</v>
+      </c>
+      <c r="AT36">
+        <v>46</v>
+      </c>
+      <c r="AU36">
+        <v>46</v>
+      </c>
+      <c r="AV36">
+        <v>46</v>
+      </c>
+      <c r="AW36">
+        <v>46</v>
+      </c>
+      <c r="AX36">
+        <v>46</v>
+      </c>
+      <c r="AY36">
+        <v>46</v>
+      </c>
+      <c r="AZ36">
+        <v>46</v>
+      </c>
+      <c r="BA36">
+        <v>46</v>
+      </c>
+      <c r="BB36">
+        <v>46</v>
+      </c>
+      <c r="BC36">
+        <v>46</v>
+      </c>
+      <c r="BD36">
+        <v>46</v>
+      </c>
+      <c r="BE36">
+        <v>46</v>
+      </c>
+      <c r="BF36">
+        <v>46</v>
+      </c>
+      <c r="BG36">
+        <v>46</v>
+      </c>
+      <c r="BH36">
+        <v>46</v>
+      </c>
+      <c r="BI36">
+        <v>46</v>
+      </c>
+      <c r="BJ36">
+        <v>46</v>
+      </c>
+      <c r="BK36">
+        <v>46</v>
+      </c>
+      <c r="BL36">
+        <v>46</v>
+      </c>
+      <c r="BM36">
+        <v>47</v>
+      </c>
+      <c r="BN36">
+        <v>47</v>
+      </c>
+      <c r="BO36">
+        <v>47</v>
+      </c>
+      <c r="BP36">
+        <v>47</v>
+      </c>
+      <c r="BQ36">
+        <v>47</v>
+      </c>
+      <c r="BR36">
+        <v>47</v>
+      </c>
+      <c r="BS36">
+        <v>47</v>
+      </c>
+      <c r="BT36">
+        <v>47</v>
+      </c>
+      <c r="BU36">
+        <v>47</v>
+      </c>
+      <c r="BV36">
+        <v>47</v>
+      </c>
+      <c r="BW36">
+        <v>47</v>
+      </c>
+      <c r="BX36">
+        <v>47</v>
+      </c>
+      <c r="BY36">
+        <v>47</v>
+      </c>
+      <c r="BZ36">
+        <v>47</v>
+      </c>
+      <c r="CA36">
+        <v>47</v>
+      </c>
+      <c r="CB36">
+        <v>47</v>
+      </c>
+      <c r="CC36">
+        <v>47</v>
+      </c>
+      <c r="CD36">
+        <v>47</v>
+      </c>
+      <c r="CE36">
+        <v>47</v>
+      </c>
+      <c r="CF36">
+        <v>47</v>
+      </c>
+      <c r="CG36">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37">
+        <v>44</v>
+      </c>
+      <c r="C37">
+        <v>44</v>
+      </c>
+      <c r="D37">
+        <v>44</v>
+      </c>
+      <c r="E37">
+        <v>44</v>
+      </c>
+      <c r="F37">
+        <v>44</v>
+      </c>
+      <c r="G37">
+        <v>44</v>
+      </c>
+      <c r="H37">
+        <v>44</v>
+      </c>
+      <c r="I37">
+        <v>44</v>
+      </c>
+      <c r="J37">
+        <v>44</v>
+      </c>
+      <c r="K37">
+        <v>44</v>
+      </c>
+      <c r="L37">
+        <v>44</v>
+      </c>
+      <c r="M37">
+        <v>44</v>
+      </c>
+      <c r="N37">
+        <v>44</v>
+      </c>
+      <c r="O37">
+        <v>44</v>
+      </c>
+      <c r="P37">
+        <v>44</v>
+      </c>
+      <c r="Q37">
+        <v>44</v>
+      </c>
+      <c r="R37">
+        <v>44</v>
+      </c>
+      <c r="S37">
+        <v>44</v>
+      </c>
+      <c r="T37">
+        <v>44</v>
+      </c>
+      <c r="U37">
+        <v>44</v>
+      </c>
+      <c r="V37">
+        <v>44</v>
+      </c>
+      <c r="W37">
+        <v>47</v>
+      </c>
+      <c r="X37">
+        <v>47</v>
+      </c>
+      <c r="Y37">
+        <v>47</v>
+      </c>
+      <c r="Z37">
+        <v>47</v>
+      </c>
+      <c r="AA37">
+        <v>47</v>
+      </c>
+      <c r="AB37">
+        <v>47</v>
+      </c>
+      <c r="AC37">
+        <v>47</v>
+      </c>
+      <c r="AD37">
+        <v>47</v>
+      </c>
+      <c r="AE37">
+        <v>47</v>
+      </c>
+      <c r="AF37">
+        <v>47</v>
+      </c>
+      <c r="AG37">
+        <v>47</v>
+      </c>
+      <c r="AH37">
+        <v>47</v>
+      </c>
+      <c r="AI37">
+        <v>47</v>
+      </c>
+      <c r="AJ37">
+        <v>47</v>
+      </c>
+      <c r="AK37">
+        <v>47</v>
+      </c>
+      <c r="AL37">
+        <v>47</v>
+      </c>
+      <c r="AM37">
+        <v>47</v>
+      </c>
+      <c r="AN37">
+        <v>47</v>
+      </c>
+      <c r="AO37">
+        <v>47</v>
+      </c>
+      <c r="AP37">
+        <v>47</v>
+      </c>
+      <c r="AQ37">
+        <v>47</v>
+      </c>
+      <c r="AR37">
+        <v>46</v>
+      </c>
+      <c r="AS37">
+        <v>46</v>
+      </c>
+      <c r="AT37">
+        <v>46</v>
+      </c>
+      <c r="AU37">
+        <v>46</v>
+      </c>
+      <c r="AV37">
+        <v>46</v>
+      </c>
+      <c r="AW37">
+        <v>46</v>
+      </c>
+      <c r="AX37">
+        <v>46</v>
+      </c>
+      <c r="AY37">
+        <v>46</v>
+      </c>
+      <c r="AZ37">
+        <v>46</v>
+      </c>
+      <c r="BA37">
+        <v>46</v>
+      </c>
+      <c r="BB37">
+        <v>46</v>
+      </c>
+      <c r="BC37">
+        <v>46</v>
+      </c>
+      <c r="BD37">
+        <v>46</v>
+      </c>
+      <c r="BE37">
+        <v>46</v>
+      </c>
+      <c r="BF37">
+        <v>46</v>
+      </c>
+      <c r="BG37">
+        <v>46</v>
+      </c>
+      <c r="BH37">
+        <v>46</v>
+      </c>
+      <c r="BI37">
+        <v>46</v>
+      </c>
+      <c r="BJ37">
+        <v>46</v>
+      </c>
+      <c r="BK37">
+        <v>46</v>
+      </c>
+      <c r="BL37">
+        <v>46</v>
+      </c>
+      <c r="BM37">
+        <v>49</v>
+      </c>
+      <c r="BN37">
+        <v>49</v>
+      </c>
+      <c r="BO37">
+        <v>49</v>
+      </c>
+      <c r="BP37">
+        <v>49</v>
+      </c>
+      <c r="BQ37">
+        <v>49</v>
+      </c>
+      <c r="BR37">
+        <v>49</v>
+      </c>
+      <c r="BS37">
+        <v>49</v>
+      </c>
+      <c r="BT37">
+        <v>49</v>
+      </c>
+      <c r="BU37">
+        <v>49</v>
+      </c>
+      <c r="BV37">
+        <v>49</v>
+      </c>
+      <c r="BW37">
+        <v>49</v>
+      </c>
+      <c r="BX37">
+        <v>49</v>
+      </c>
+      <c r="BY37">
+        <v>49</v>
+      </c>
+      <c r="BZ37">
+        <v>49</v>
+      </c>
+      <c r="CA37">
+        <v>49</v>
+      </c>
+      <c r="CB37">
+        <v>49</v>
+      </c>
+      <c r="CC37">
+        <v>49</v>
+      </c>
+      <c r="CD37">
+        <v>49</v>
+      </c>
+      <c r="CE37">
+        <v>49</v>
+      </c>
+      <c r="CF37">
+        <v>49</v>
+      </c>
+      <c r="CG37">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38">
+        <v>44</v>
+      </c>
+      <c r="C38">
+        <v>44</v>
+      </c>
+      <c r="D38">
+        <v>44</v>
+      </c>
+      <c r="E38">
+        <v>44</v>
+      </c>
+      <c r="F38">
+        <v>44</v>
+      </c>
+      <c r="G38">
+        <v>44</v>
+      </c>
+      <c r="H38">
+        <v>44</v>
+      </c>
+      <c r="I38">
+        <v>44</v>
+      </c>
+      <c r="J38">
+        <v>44</v>
+      </c>
+      <c r="K38">
+        <v>44</v>
+      </c>
+      <c r="L38">
+        <v>44</v>
+      </c>
+      <c r="M38">
+        <v>44</v>
+      </c>
+      <c r="N38">
+        <v>44</v>
+      </c>
+      <c r="O38">
+        <v>44</v>
+      </c>
+      <c r="P38">
+        <v>44</v>
+      </c>
+      <c r="Q38">
+        <v>44</v>
+      </c>
+      <c r="R38">
+        <v>44</v>
+      </c>
+      <c r="S38">
+        <v>44</v>
+      </c>
+      <c r="T38">
+        <v>44</v>
+      </c>
+      <c r="U38">
+        <v>44</v>
+      </c>
+      <c r="V38">
+        <v>44</v>
+      </c>
+      <c r="W38">
+        <v>44</v>
+      </c>
+      <c r="X38">
+        <v>44</v>
+      </c>
+      <c r="Y38">
+        <v>44</v>
+      </c>
+      <c r="Z38">
+        <v>44</v>
+      </c>
+      <c r="AA38">
+        <v>44</v>
+      </c>
+      <c r="AB38">
+        <v>44</v>
+      </c>
+      <c r="AC38">
+        <v>44</v>
+      </c>
+      <c r="AD38">
+        <v>44</v>
+      </c>
+      <c r="AE38">
+        <v>44</v>
+      </c>
+      <c r="AF38">
+        <v>44</v>
+      </c>
+      <c r="AG38">
+        <v>44</v>
+      </c>
+      <c r="AH38">
+        <v>44</v>
+      </c>
+      <c r="AI38">
+        <v>44</v>
+      </c>
+      <c r="AJ38">
+        <v>44</v>
+      </c>
+      <c r="AK38">
+        <v>44</v>
+      </c>
+      <c r="AL38">
+        <v>44</v>
+      </c>
+      <c r="AM38">
+        <v>44</v>
+      </c>
+      <c r="AN38">
+        <v>44</v>
+      </c>
+      <c r="AO38">
+        <v>44</v>
+      </c>
+      <c r="AP38">
+        <v>44</v>
+      </c>
+      <c r="AQ38">
+        <v>44</v>
+      </c>
+      <c r="AR38">
+        <v>42</v>
+      </c>
+      <c r="AS38">
+        <v>42</v>
+      </c>
+      <c r="AT38">
+        <v>42</v>
+      </c>
+      <c r="AU38">
+        <v>42</v>
+      </c>
+      <c r="AV38">
+        <v>42</v>
+      </c>
+      <c r="AW38">
+        <v>42</v>
+      </c>
+      <c r="AX38">
+        <v>42</v>
+      </c>
+      <c r="AY38">
+        <v>42</v>
+      </c>
+      <c r="AZ38">
+        <v>42</v>
+      </c>
+      <c r="BA38">
+        <v>42</v>
+      </c>
+      <c r="BB38">
+        <v>42</v>
+      </c>
+      <c r="BC38">
+        <v>42</v>
+      </c>
+      <c r="BD38">
+        <v>42</v>
+      </c>
+      <c r="BE38">
+        <v>42</v>
+      </c>
+      <c r="BF38">
+        <v>42</v>
+      </c>
+      <c r="BG38">
+        <v>42</v>
+      </c>
+      <c r="BH38">
+        <v>42</v>
+      </c>
+      <c r="BI38">
+        <v>42</v>
+      </c>
+      <c r="BJ38">
+        <v>42</v>
+      </c>
+      <c r="BK38">
+        <v>42</v>
+      </c>
+      <c r="BL38">
+        <v>42</v>
+      </c>
+      <c r="BM38">
+        <v>42</v>
+      </c>
+      <c r="BN38">
+        <v>42</v>
+      </c>
+      <c r="BO38">
+        <v>42</v>
+      </c>
+      <c r="BP38">
+        <v>42</v>
+      </c>
+      <c r="BQ38">
+        <v>42</v>
+      </c>
+      <c r="BR38">
+        <v>42</v>
+      </c>
+      <c r="BS38">
+        <v>42</v>
+      </c>
+      <c r="BT38">
+        <v>42</v>
+      </c>
+      <c r="BU38">
+        <v>42</v>
+      </c>
+      <c r="BV38">
+        <v>42</v>
+      </c>
+      <c r="BW38">
+        <v>42</v>
+      </c>
+      <c r="BX38">
+        <v>42</v>
+      </c>
+      <c r="BY38">
+        <v>42</v>
+      </c>
+      <c r="BZ38">
+        <v>42</v>
+      </c>
+      <c r="CA38">
+        <v>42</v>
+      </c>
+      <c r="CB38">
+        <v>42</v>
+      </c>
+      <c r="CC38">
+        <v>42</v>
+      </c>
+      <c r="CD38">
+        <v>42</v>
+      </c>
+      <c r="CE38">
+        <v>42</v>
+      </c>
+      <c r="CF38">
+        <v>42</v>
+      </c>
+      <c r="CG38">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39">
+        <v>44</v>
+      </c>
+      <c r="C39">
+        <v>44</v>
+      </c>
+      <c r="D39">
+        <v>44</v>
+      </c>
+      <c r="E39">
+        <v>44</v>
+      </c>
+      <c r="F39">
+        <v>44</v>
+      </c>
+      <c r="G39">
+        <v>44</v>
+      </c>
+      <c r="H39">
+        <v>44</v>
+      </c>
+      <c r="I39">
+        <v>44</v>
+      </c>
+      <c r="J39">
+        <v>44</v>
+      </c>
+      <c r="K39">
+        <v>44</v>
+      </c>
+      <c r="L39">
+        <v>44</v>
+      </c>
+      <c r="M39">
+        <v>44</v>
+      </c>
+      <c r="N39">
+        <v>44</v>
+      </c>
+      <c r="O39">
+        <v>44</v>
+      </c>
+      <c r="P39">
+        <v>44</v>
+      </c>
+      <c r="Q39">
+        <v>44</v>
+      </c>
+      <c r="R39">
+        <v>44</v>
+      </c>
+      <c r="S39">
+        <v>44</v>
+      </c>
+      <c r="T39">
+        <v>44</v>
+      </c>
+      <c r="U39">
+        <v>44</v>
+      </c>
+      <c r="V39">
+        <v>44</v>
+      </c>
+      <c r="W39">
+        <v>44</v>
+      </c>
+      <c r="X39">
+        <v>44</v>
+      </c>
+      <c r="Y39">
+        <v>44</v>
+      </c>
+      <c r="Z39">
+        <v>44</v>
+      </c>
+      <c r="AA39">
+        <v>44</v>
+      </c>
+      <c r="AB39">
+        <v>44</v>
+      </c>
+      <c r="AC39">
+        <v>44</v>
+      </c>
+      <c r="AD39">
+        <v>44</v>
+      </c>
+      <c r="AE39">
+        <v>44</v>
+      </c>
+      <c r="AF39">
+        <v>44</v>
+      </c>
+      <c r="AG39">
+        <v>44</v>
+      </c>
+      <c r="AH39">
+        <v>44</v>
+      </c>
+      <c r="AI39">
+        <v>44</v>
+      </c>
+      <c r="AJ39">
+        <v>44</v>
+      </c>
+      <c r="AK39">
+        <v>44</v>
+      </c>
+      <c r="AL39">
+        <v>44</v>
+      </c>
+      <c r="AM39">
+        <v>44</v>
+      </c>
+      <c r="AN39">
+        <v>44</v>
+      </c>
+      <c r="AO39">
+        <v>44</v>
+      </c>
+      <c r="AP39">
+        <v>44</v>
+      </c>
+      <c r="AQ39">
+        <v>44</v>
+      </c>
+      <c r="AR39">
+        <v>42</v>
+      </c>
+      <c r="AS39">
+        <v>42</v>
+      </c>
+      <c r="AT39">
+        <v>42</v>
+      </c>
+      <c r="AU39">
+        <v>42</v>
+      </c>
+      <c r="AV39">
+        <v>42</v>
+      </c>
+      <c r="AW39">
+        <v>42</v>
+      </c>
+      <c r="AX39">
+        <v>42</v>
+      </c>
+      <c r="AY39">
+        <v>42</v>
+      </c>
+      <c r="AZ39">
+        <v>42</v>
+      </c>
+      <c r="BA39">
+        <v>42</v>
+      </c>
+      <c r="BB39">
+        <v>42</v>
+      </c>
+      <c r="BC39">
+        <v>42</v>
+      </c>
+      <c r="BD39">
+        <v>42</v>
+      </c>
+      <c r="BE39">
+        <v>42</v>
+      </c>
+      <c r="BF39">
+        <v>42</v>
+      </c>
+      <c r="BG39">
+        <v>42</v>
+      </c>
+      <c r="BH39">
+        <v>42</v>
+      </c>
+      <c r="BI39">
+        <v>42</v>
+      </c>
+      <c r="BJ39">
+        <v>42</v>
+      </c>
+      <c r="BK39">
+        <v>42</v>
+      </c>
+      <c r="BL39">
+        <v>42</v>
+      </c>
+      <c r="BM39">
+        <v>45</v>
+      </c>
+      <c r="BN39">
+        <v>45</v>
+      </c>
+      <c r="BO39">
+        <v>45</v>
+      </c>
+      <c r="BP39">
+        <v>45</v>
+      </c>
+      <c r="BQ39">
+        <v>45</v>
+      </c>
+      <c r="BR39">
+        <v>45</v>
+      </c>
+      <c r="BS39">
+        <v>45</v>
+      </c>
+      <c r="BT39">
+        <v>45</v>
+      </c>
+      <c r="BU39">
+        <v>45</v>
+      </c>
+      <c r="BV39">
+        <v>45</v>
+      </c>
+      <c r="BW39">
+        <v>45</v>
+      </c>
+      <c r="BX39">
+        <v>45</v>
+      </c>
+      <c r="BY39">
+        <v>45</v>
+      </c>
+      <c r="BZ39">
+        <v>45</v>
+      </c>
+      <c r="CA39">
+        <v>45</v>
+      </c>
+      <c r="CB39">
+        <v>45</v>
+      </c>
+      <c r="CC39">
+        <v>45</v>
+      </c>
+      <c r="CD39">
+        <v>45</v>
+      </c>
+      <c r="CE39">
+        <v>45</v>
+      </c>
+      <c r="CF39">
+        <v>45</v>
+      </c>
+      <c r="CG39">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>44</v>
+      </c>
+      <c r="D40">
+        <v>44</v>
+      </c>
+      <c r="E40">
+        <v>44</v>
+      </c>
+      <c r="F40">
+        <v>44</v>
+      </c>
+      <c r="G40">
+        <v>44</v>
+      </c>
+      <c r="H40">
+        <v>44</v>
+      </c>
+      <c r="I40">
+        <v>44</v>
+      </c>
+      <c r="J40">
+        <v>44</v>
+      </c>
+      <c r="K40">
+        <v>44</v>
+      </c>
+      <c r="L40">
+        <v>44</v>
+      </c>
+      <c r="M40">
+        <v>44</v>
+      </c>
+      <c r="N40">
+        <v>44</v>
+      </c>
+      <c r="O40">
+        <v>44</v>
+      </c>
+      <c r="P40">
+        <v>44</v>
+      </c>
+      <c r="Q40">
+        <v>44</v>
+      </c>
+      <c r="R40">
+        <v>44</v>
+      </c>
+      <c r="S40">
+        <v>44</v>
+      </c>
+      <c r="T40">
+        <v>44</v>
+      </c>
+      <c r="U40">
+        <v>44</v>
+      </c>
+      <c r="V40">
+        <v>44</v>
+      </c>
+      <c r="W40">
+        <v>44</v>
+      </c>
+      <c r="X40">
+        <v>44</v>
+      </c>
+      <c r="Y40">
+        <v>44</v>
+      </c>
+      <c r="Z40">
+        <v>44</v>
+      </c>
+      <c r="AA40">
+        <v>44</v>
+      </c>
+      <c r="AB40">
+        <v>44</v>
+      </c>
+      <c r="AC40">
+        <v>44</v>
+      </c>
+      <c r="AD40">
+        <v>44</v>
+      </c>
+      <c r="AE40">
+        <v>44</v>
+      </c>
+      <c r="AF40">
+        <v>44</v>
+      </c>
+      <c r="AG40">
+        <v>44</v>
+      </c>
+      <c r="AH40">
+        <v>44</v>
+      </c>
+      <c r="AI40">
+        <v>44</v>
+      </c>
+      <c r="AJ40">
+        <v>44</v>
+      </c>
+      <c r="AK40">
+        <v>44</v>
+      </c>
+      <c r="AL40">
+        <v>44</v>
+      </c>
+      <c r="AM40">
+        <v>44</v>
+      </c>
+      <c r="AN40">
+        <v>44</v>
+      </c>
+      <c r="AO40">
+        <v>44</v>
+      </c>
+      <c r="AP40">
+        <v>44</v>
+      </c>
+      <c r="AQ40">
+        <v>44</v>
+      </c>
+      <c r="AR40">
+        <v>44</v>
+      </c>
+      <c r="AS40">
+        <v>44</v>
+      </c>
+      <c r="AT40">
+        <v>44</v>
+      </c>
+      <c r="AU40">
+        <v>44</v>
+      </c>
+      <c r="AV40">
+        <v>44</v>
+      </c>
+      <c r="AW40">
+        <v>44</v>
+      </c>
+      <c r="AX40">
+        <v>44</v>
+      </c>
+      <c r="AY40">
+        <v>44</v>
+      </c>
+      <c r="AZ40">
+        <v>44</v>
+      </c>
+      <c r="BA40">
+        <v>44</v>
+      </c>
+      <c r="BB40">
+        <v>44</v>
+      </c>
+      <c r="BC40">
+        <v>44</v>
+      </c>
+      <c r="BD40">
+        <v>44</v>
+      </c>
+      <c r="BE40">
+        <v>44</v>
+      </c>
+      <c r="BF40">
+        <v>44</v>
+      </c>
+      <c r="BG40">
+        <v>44</v>
+      </c>
+      <c r="BH40">
+        <v>44</v>
+      </c>
+      <c r="BI40">
+        <v>44</v>
+      </c>
+      <c r="BJ40">
+        <v>44</v>
+      </c>
+      <c r="BK40">
+        <v>44</v>
+      </c>
+      <c r="BL40">
+        <v>44</v>
+      </c>
+      <c r="BM40">
+        <v>45</v>
+      </c>
+      <c r="BN40">
+        <v>45</v>
+      </c>
+      <c r="BO40">
+        <v>45</v>
+      </c>
+      <c r="BP40">
+        <v>45</v>
+      </c>
+      <c r="BQ40">
+        <v>45</v>
+      </c>
+      <c r="BR40">
+        <v>45</v>
+      </c>
+      <c r="BS40">
+        <v>45</v>
+      </c>
+      <c r="BT40">
+        <v>45</v>
+      </c>
+      <c r="BU40">
+        <v>45</v>
+      </c>
+      <c r="BV40">
+        <v>45</v>
+      </c>
+      <c r="BW40">
+        <v>45</v>
+      </c>
+      <c r="BX40">
+        <v>45</v>
+      </c>
+      <c r="BY40">
+        <v>45</v>
+      </c>
+      <c r="BZ40">
+        <v>45</v>
+      </c>
+      <c r="CA40">
+        <v>45</v>
+      </c>
+      <c r="CB40">
+        <v>45</v>
+      </c>
+      <c r="CC40">
+        <v>45</v>
+      </c>
+      <c r="CD40">
+        <v>45</v>
+      </c>
+      <c r="CE40">
+        <v>45</v>
+      </c>
+      <c r="CF40">
+        <v>45</v>
+      </c>
+      <c r="CG40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41">
+        <v>44</v>
+      </c>
+      <c r="C41">
+        <v>44</v>
+      </c>
+      <c r="D41">
+        <v>44</v>
+      </c>
+      <c r="E41">
+        <v>44</v>
+      </c>
+      <c r="F41">
+        <v>44</v>
+      </c>
+      <c r="G41">
+        <v>44</v>
+      </c>
+      <c r="H41">
+        <v>44</v>
+      </c>
+      <c r="I41">
+        <v>44</v>
+      </c>
+      <c r="J41">
+        <v>44</v>
+      </c>
+      <c r="K41">
+        <v>44</v>
+      </c>
+      <c r="L41">
+        <v>44</v>
+      </c>
+      <c r="M41">
+        <v>44</v>
+      </c>
+      <c r="N41">
+        <v>44</v>
+      </c>
+      <c r="O41">
+        <v>44</v>
+      </c>
+      <c r="P41">
+        <v>44</v>
+      </c>
+      <c r="Q41">
+        <v>44</v>
+      </c>
+      <c r="R41">
+        <v>44</v>
+      </c>
+      <c r="S41">
+        <v>44</v>
+      </c>
+      <c r="T41">
+        <v>44</v>
+      </c>
+      <c r="U41">
+        <v>44</v>
+      </c>
+      <c r="V41">
+        <v>44</v>
+      </c>
+      <c r="W41">
+        <v>44</v>
+      </c>
+      <c r="X41">
+        <v>44</v>
+      </c>
+      <c r="Y41">
+        <v>44</v>
+      </c>
+      <c r="Z41">
+        <v>44</v>
+      </c>
+      <c r="AA41">
+        <v>44</v>
+      </c>
+      <c r="AB41">
+        <v>44</v>
+      </c>
+      <c r="AC41">
+        <v>44</v>
+      </c>
+      <c r="AD41">
+        <v>44</v>
+      </c>
+      <c r="AE41">
+        <v>44</v>
+      </c>
+      <c r="AF41">
+        <v>44</v>
+      </c>
+      <c r="AG41">
+        <v>44</v>
+      </c>
+      <c r="AH41">
+        <v>44</v>
+      </c>
+      <c r="AI41">
+        <v>44</v>
+      </c>
+      <c r="AJ41">
+        <v>44</v>
+      </c>
+      <c r="AK41">
+        <v>44</v>
+      </c>
+      <c r="AL41">
+        <v>44</v>
+      </c>
+      <c r="AM41">
+        <v>44</v>
+      </c>
+      <c r="AN41">
+        <v>44</v>
+      </c>
+      <c r="AO41">
+        <v>44</v>
+      </c>
+      <c r="AP41">
+        <v>44</v>
+      </c>
+      <c r="AQ41">
+        <v>44</v>
+      </c>
+      <c r="AR41">
+        <v>44</v>
+      </c>
+      <c r="AS41">
+        <v>44</v>
+      </c>
+      <c r="AT41">
+        <v>44</v>
+      </c>
+      <c r="AU41">
+        <v>44</v>
+      </c>
+      <c r="AV41">
+        <v>44</v>
+      </c>
+      <c r="AW41">
+        <v>44</v>
+      </c>
+      <c r="AX41">
+        <v>44</v>
+      </c>
+      <c r="AY41">
+        <v>44</v>
+      </c>
+      <c r="AZ41">
+        <v>44</v>
+      </c>
+      <c r="BA41">
+        <v>44</v>
+      </c>
+      <c r="BB41">
+        <v>44</v>
+      </c>
+      <c r="BC41">
+        <v>44</v>
+      </c>
+      <c r="BD41">
+        <v>44</v>
+      </c>
+      <c r="BE41">
+        <v>44</v>
+      </c>
+      <c r="BF41">
+        <v>44</v>
+      </c>
+      <c r="BG41">
+        <v>44</v>
+      </c>
+      <c r="BH41">
+        <v>44</v>
+      </c>
+      <c r="BI41">
+        <v>44</v>
+      </c>
+      <c r="BJ41">
+        <v>44</v>
+      </c>
+      <c r="BK41">
+        <v>44</v>
+      </c>
+      <c r="BL41">
+        <v>44</v>
+      </c>
+      <c r="BM41">
+        <v>46</v>
+      </c>
+      <c r="BN41">
+        <v>46</v>
+      </c>
+      <c r="BO41">
+        <v>46</v>
+      </c>
+      <c r="BP41">
+        <v>46</v>
+      </c>
+      <c r="BQ41">
+        <v>46</v>
+      </c>
+      <c r="BR41">
+        <v>46</v>
+      </c>
+      <c r="BS41">
+        <v>46</v>
+      </c>
+      <c r="BT41">
+        <v>46</v>
+      </c>
+      <c r="BU41">
+        <v>46</v>
+      </c>
+      <c r="BV41">
+        <v>46</v>
+      </c>
+      <c r="BW41">
+        <v>46</v>
+      </c>
+      <c r="BX41">
+        <v>46</v>
+      </c>
+      <c r="BY41">
+        <v>46</v>
+      </c>
+      <c r="BZ41">
+        <v>46</v>
+      </c>
+      <c r="CA41">
+        <v>46</v>
+      </c>
+      <c r="CB41">
+        <v>46</v>
+      </c>
+      <c r="CC41">
+        <v>46</v>
+      </c>
+      <c r="CD41">
+        <v>46</v>
+      </c>
+      <c r="CE41">
+        <v>46</v>
+      </c>
+      <c r="CF41">
+        <v>46</v>
+      </c>
+      <c r="CG41">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42">
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <v>50</v>
+      </c>
+      <c r="D42">
+        <v>50</v>
+      </c>
+      <c r="E42">
+        <v>50</v>
+      </c>
+      <c r="F42">
+        <v>50</v>
+      </c>
+      <c r="G42">
+        <v>50</v>
+      </c>
+      <c r="H42">
+        <v>50</v>
+      </c>
+      <c r="I42">
+        <v>50</v>
+      </c>
+      <c r="J42">
+        <v>50</v>
+      </c>
+      <c r="K42">
+        <v>50</v>
+      </c>
+      <c r="L42">
+        <v>50</v>
+      </c>
+      <c r="M42">
+        <v>50</v>
+      </c>
+      <c r="N42">
+        <v>50</v>
+      </c>
+      <c r="O42">
+        <v>50</v>
+      </c>
+      <c r="P42">
+        <v>50</v>
+      </c>
+      <c r="Q42">
+        <v>50</v>
+      </c>
+      <c r="R42">
+        <v>50</v>
+      </c>
+      <c r="S42">
+        <v>50</v>
+      </c>
+      <c r="T42">
+        <v>50</v>
+      </c>
+      <c r="U42">
+        <v>50</v>
+      </c>
+      <c r="V42">
+        <v>50</v>
+      </c>
+      <c r="W42">
+        <v>52</v>
+      </c>
+      <c r="X42">
+        <v>52</v>
+      </c>
+      <c r="Y42">
+        <v>52</v>
+      </c>
+      <c r="Z42">
+        <v>52</v>
+      </c>
+      <c r="AA42">
+        <v>52</v>
+      </c>
+      <c r="AB42">
+        <v>52</v>
+      </c>
+      <c r="AC42">
+        <v>52</v>
+      </c>
+      <c r="AD42">
+        <v>52</v>
+      </c>
+      <c r="AE42">
+        <v>52</v>
+      </c>
+      <c r="AF42">
+        <v>52</v>
+      </c>
+      <c r="AG42">
+        <v>52</v>
+      </c>
+      <c r="AH42">
+        <v>52</v>
+      </c>
+      <c r="AI42">
+        <v>52</v>
+      </c>
+      <c r="AJ42">
+        <v>52</v>
+      </c>
+      <c r="AK42">
+        <v>52</v>
+      </c>
+      <c r="AL42">
+        <v>52</v>
+      </c>
+      <c r="AM42">
+        <v>52</v>
+      </c>
+      <c r="AN42">
+        <v>52</v>
+      </c>
+      <c r="AO42">
+        <v>52</v>
+      </c>
+      <c r="AP42">
+        <v>52</v>
+      </c>
+      <c r="AQ42">
+        <v>52</v>
+      </c>
+      <c r="AR42">
+        <v>50</v>
+      </c>
+      <c r="AS42">
+        <v>50</v>
+      </c>
+      <c r="AT42">
+        <v>50</v>
+      </c>
+      <c r="AU42">
+        <v>50</v>
+      </c>
+      <c r="AV42">
+        <v>50</v>
+      </c>
+      <c r="AW42">
+        <v>50</v>
+      </c>
+      <c r="AX42">
+        <v>50</v>
+      </c>
+      <c r="AY42">
+        <v>50</v>
+      </c>
+      <c r="AZ42">
+        <v>50</v>
+      </c>
+      <c r="BA42">
+        <v>50</v>
+      </c>
+      <c r="BB42">
+        <v>50</v>
+      </c>
+      <c r="BC42">
+        <v>50</v>
+      </c>
+      <c r="BD42">
+        <v>50</v>
+      </c>
+      <c r="BE42">
+        <v>50</v>
+      </c>
+      <c r="BF42">
+        <v>50</v>
+      </c>
+      <c r="BG42">
+        <v>50</v>
+      </c>
+      <c r="BH42">
+        <v>50</v>
+      </c>
+      <c r="BI42">
+        <v>50</v>
+      </c>
+      <c r="BJ42">
+        <v>50</v>
+      </c>
+      <c r="BK42">
+        <v>50</v>
+      </c>
+      <c r="BL42">
+        <v>50</v>
+      </c>
+      <c r="BM42">
+        <v>51</v>
+      </c>
+      <c r="BN42">
+        <v>51</v>
+      </c>
+      <c r="BO42">
+        <v>51</v>
+      </c>
+      <c r="BP42">
+        <v>51</v>
+      </c>
+      <c r="BQ42">
+        <v>51</v>
+      </c>
+      <c r="BR42">
+        <v>51</v>
+      </c>
+      <c r="BS42">
+        <v>51</v>
+      </c>
+      <c r="BT42">
+        <v>51</v>
+      </c>
+      <c r="BU42">
+        <v>51</v>
+      </c>
+      <c r="BV42">
+        <v>51</v>
+      </c>
+      <c r="BW42">
+        <v>51</v>
+      </c>
+      <c r="BX42">
+        <v>51</v>
+      </c>
+      <c r="BY42">
+        <v>51</v>
+      </c>
+      <c r="BZ42">
+        <v>51</v>
+      </c>
+      <c r="CA42">
+        <v>51</v>
+      </c>
+      <c r="CB42">
+        <v>51</v>
+      </c>
+      <c r="CC42">
+        <v>51</v>
+      </c>
+      <c r="CD42">
+        <v>51</v>
+      </c>
+      <c r="CE42">
+        <v>51</v>
+      </c>
+      <c r="CF42">
+        <v>51</v>
+      </c>
+      <c r="CG42">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43">
+        <v>50</v>
+      </c>
+      <c r="C43">
+        <v>50</v>
+      </c>
+      <c r="D43">
+        <v>50</v>
+      </c>
+      <c r="E43">
+        <v>50</v>
+      </c>
+      <c r="F43">
+        <v>50</v>
+      </c>
+      <c r="G43">
+        <v>50</v>
+      </c>
+      <c r="H43">
+        <v>50</v>
+      </c>
+      <c r="I43">
+        <v>50</v>
+      </c>
+      <c r="J43">
+        <v>50</v>
+      </c>
+      <c r="K43">
+        <v>50</v>
+      </c>
+      <c r="L43">
+        <v>50</v>
+      </c>
+      <c r="M43">
+        <v>50</v>
+      </c>
+      <c r="N43">
+        <v>50</v>
+      </c>
+      <c r="O43">
+        <v>50</v>
+      </c>
+      <c r="P43">
+        <v>50</v>
+      </c>
+      <c r="Q43">
+        <v>50</v>
+      </c>
+      <c r="R43">
+        <v>50</v>
+      </c>
+      <c r="S43">
+        <v>50</v>
+      </c>
+      <c r="T43">
+        <v>50</v>
+      </c>
+      <c r="U43">
+        <v>50</v>
+      </c>
+      <c r="V43">
+        <v>50</v>
+      </c>
+      <c r="W43">
+        <v>52</v>
+      </c>
+      <c r="X43">
+        <v>52</v>
+      </c>
+      <c r="Y43">
+        <v>52</v>
+      </c>
+      <c r="Z43">
+        <v>52</v>
+      </c>
+      <c r="AA43">
+        <v>52</v>
+      </c>
+      <c r="AB43">
+        <v>52</v>
+      </c>
+      <c r="AC43">
+        <v>52</v>
+      </c>
+      <c r="AD43">
+        <v>52</v>
+      </c>
+      <c r="AE43">
+        <v>52</v>
+      </c>
+      <c r="AF43">
+        <v>52</v>
+      </c>
+      <c r="AG43">
+        <v>52</v>
+      </c>
+      <c r="AH43">
+        <v>52</v>
+      </c>
+      <c r="AI43">
+        <v>52</v>
+      </c>
+      <c r="AJ43">
+        <v>52</v>
+      </c>
+      <c r="AK43">
+        <v>52</v>
+      </c>
+      <c r="AL43">
+        <v>52</v>
+      </c>
+      <c r="AM43">
+        <v>52</v>
+      </c>
+      <c r="AN43">
+        <v>52</v>
+      </c>
+      <c r="AO43">
+        <v>52</v>
+      </c>
+      <c r="AP43">
+        <v>52</v>
+      </c>
+      <c r="AQ43">
+        <v>52</v>
+      </c>
+      <c r="AR43">
+        <v>50</v>
+      </c>
+      <c r="AS43">
+        <v>50</v>
+      </c>
+      <c r="AT43">
+        <v>50</v>
+      </c>
+      <c r="AU43">
+        <v>50</v>
+      </c>
+      <c r="AV43">
+        <v>50</v>
+      </c>
+      <c r="AW43">
+        <v>50</v>
+      </c>
+      <c r="AX43">
+        <v>50</v>
+      </c>
+      <c r="AY43">
+        <v>50</v>
+      </c>
+      <c r="AZ43">
+        <v>50</v>
+      </c>
+      <c r="BA43">
+        <v>50</v>
+      </c>
+      <c r="BB43">
+        <v>50</v>
+      </c>
+      <c r="BC43">
+        <v>50</v>
+      </c>
+      <c r="BD43">
+        <v>50</v>
+      </c>
+      <c r="BE43">
+        <v>50</v>
+      </c>
+      <c r="BF43">
+        <v>50</v>
+      </c>
+      <c r="BG43">
+        <v>50</v>
+      </c>
+      <c r="BH43">
+        <v>50</v>
+      </c>
+      <c r="BI43">
+        <v>50</v>
+      </c>
+      <c r="BJ43">
+        <v>50</v>
+      </c>
+      <c r="BK43">
+        <v>50</v>
+      </c>
+      <c r="BL43">
+        <v>50</v>
+      </c>
+      <c r="BM43">
+        <v>55</v>
+      </c>
+      <c r="BN43">
+        <v>55</v>
+      </c>
+      <c r="BO43">
+        <v>55</v>
+      </c>
+      <c r="BP43">
+        <v>55</v>
+      </c>
+      <c r="BQ43">
+        <v>55</v>
+      </c>
+      <c r="BR43">
+        <v>55</v>
+      </c>
+      <c r="BS43">
+        <v>55</v>
+      </c>
+      <c r="BT43">
+        <v>55</v>
+      </c>
+      <c r="BU43">
+        <v>55</v>
+      </c>
+      <c r="BV43">
+        <v>55</v>
+      </c>
+      <c r="BW43">
+        <v>55</v>
+      </c>
+      <c r="BX43">
+        <v>55</v>
+      </c>
+      <c r="BY43">
+        <v>55</v>
+      </c>
+      <c r="BZ43">
+        <v>55</v>
+      </c>
+      <c r="CA43">
+        <v>55</v>
+      </c>
+      <c r="CB43">
+        <v>55</v>
+      </c>
+      <c r="CC43">
+        <v>55</v>
+      </c>
+      <c r="CD43">
+        <v>55</v>
+      </c>
+      <c r="CE43">
+        <v>55</v>
+      </c>
+      <c r="CF43">
+        <v>55</v>
+      </c>
+      <c r="CG43">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44">
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>50</v>
+      </c>
+      <c r="D44">
+        <v>50</v>
+      </c>
+      <c r="E44">
+        <v>50</v>
+      </c>
+      <c r="F44">
+        <v>50</v>
+      </c>
+      <c r="G44">
+        <v>50</v>
+      </c>
+      <c r="H44">
+        <v>50</v>
+      </c>
+      <c r="I44">
+        <v>50</v>
+      </c>
+      <c r="J44">
+        <v>50</v>
+      </c>
+      <c r="K44">
+        <v>50</v>
+      </c>
+      <c r="L44">
+        <v>50</v>
+      </c>
+      <c r="M44">
+        <v>50</v>
+      </c>
+      <c r="N44">
+        <v>50</v>
+      </c>
+      <c r="O44">
+        <v>50</v>
+      </c>
+      <c r="P44">
+        <v>50</v>
+      </c>
+      <c r="Q44">
+        <v>50</v>
+      </c>
+      <c r="R44">
+        <v>50</v>
+      </c>
+      <c r="S44">
+        <v>50</v>
+      </c>
+      <c r="T44">
+        <v>50</v>
+      </c>
+      <c r="U44">
+        <v>50</v>
+      </c>
+      <c r="V44">
+        <v>50</v>
+      </c>
+      <c r="W44">
+        <v>52</v>
+      </c>
+      <c r="X44">
+        <v>52</v>
+      </c>
+      <c r="Y44">
+        <v>52</v>
+      </c>
+      <c r="Z44">
+        <v>52</v>
+      </c>
+      <c r="AA44">
+        <v>52</v>
+      </c>
+      <c r="AB44">
+        <v>52</v>
+      </c>
+      <c r="AC44">
+        <v>52</v>
+      </c>
+      <c r="AD44">
+        <v>52</v>
+      </c>
+      <c r="AE44">
+        <v>52</v>
+      </c>
+      <c r="AF44">
+        <v>52</v>
+      </c>
+      <c r="AG44">
+        <v>52</v>
+      </c>
+      <c r="AH44">
+        <v>52</v>
+      </c>
+      <c r="AI44">
+        <v>52</v>
+      </c>
+      <c r="AJ44">
+        <v>52</v>
+      </c>
+      <c r="AK44">
+        <v>52</v>
+      </c>
+      <c r="AL44">
+        <v>52</v>
+      </c>
+      <c r="AM44">
+        <v>52</v>
+      </c>
+      <c r="AN44">
+        <v>52</v>
+      </c>
+      <c r="AO44">
+        <v>52</v>
+      </c>
+      <c r="AP44">
+        <v>52</v>
+      </c>
+      <c r="AQ44">
+        <v>52</v>
+      </c>
+      <c r="AR44">
+        <v>51</v>
+      </c>
+      <c r="AS44">
+        <v>51</v>
+      </c>
+      <c r="AT44">
+        <v>51</v>
+      </c>
+      <c r="AU44">
+        <v>51</v>
+      </c>
+      <c r="AV44">
+        <v>51</v>
+      </c>
+      <c r="AW44">
+        <v>51</v>
+      </c>
+      <c r="AX44">
+        <v>51</v>
+      </c>
+      <c r="AY44">
+        <v>51</v>
+      </c>
+      <c r="AZ44">
+        <v>51</v>
+      </c>
+      <c r="BA44">
+        <v>51</v>
+      </c>
+      <c r="BB44">
+        <v>51</v>
+      </c>
+      <c r="BC44">
+        <v>51</v>
+      </c>
+      <c r="BD44">
+        <v>51</v>
+      </c>
+      <c r="BE44">
+        <v>51</v>
+      </c>
+      <c r="BF44">
+        <v>51</v>
+      </c>
+      <c r="BG44">
+        <v>51</v>
+      </c>
+      <c r="BH44">
+        <v>51</v>
+      </c>
+      <c r="BI44">
+        <v>51</v>
+      </c>
+      <c r="BJ44">
+        <v>51</v>
+      </c>
+      <c r="BK44">
+        <v>51</v>
+      </c>
+      <c r="BL44">
+        <v>51</v>
+      </c>
+      <c r="BM44">
+        <v>52</v>
+      </c>
+      <c r="BN44">
+        <v>52</v>
+      </c>
+      <c r="BO44">
+        <v>52</v>
+      </c>
+      <c r="BP44">
+        <v>52</v>
+      </c>
+      <c r="BQ44">
+        <v>52</v>
+      </c>
+      <c r="BR44">
+        <v>52</v>
+      </c>
+      <c r="BS44">
+        <v>52</v>
+      </c>
+      <c r="BT44">
+        <v>52</v>
+      </c>
+      <c r="BU44">
+        <v>52</v>
+      </c>
+      <c r="BV44">
+        <v>52</v>
+      </c>
+      <c r="BW44">
+        <v>52</v>
+      </c>
+      <c r="BX44">
+        <v>52</v>
+      </c>
+      <c r="BY44">
+        <v>52</v>
+      </c>
+      <c r="BZ44">
+        <v>52</v>
+      </c>
+      <c r="CA44">
+        <v>52</v>
+      </c>
+      <c r="CB44">
+        <v>52</v>
+      </c>
+      <c r="CC44">
+        <v>52</v>
+      </c>
+      <c r="CD44">
+        <v>52</v>
+      </c>
+      <c r="CE44">
+        <v>52</v>
+      </c>
+      <c r="CF44">
+        <v>52</v>
+      </c>
+      <c r="CG44">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45">
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>50</v>
+      </c>
+      <c r="D45">
+        <v>50</v>
+      </c>
+      <c r="E45">
+        <v>50</v>
+      </c>
+      <c r="F45">
+        <v>50</v>
+      </c>
+      <c r="G45">
+        <v>50</v>
+      </c>
+      <c r="H45">
+        <v>50</v>
+      </c>
+      <c r="I45">
+        <v>50</v>
+      </c>
+      <c r="J45">
+        <v>50</v>
+      </c>
+      <c r="K45">
+        <v>50</v>
+      </c>
+      <c r="L45">
+        <v>50</v>
+      </c>
+      <c r="M45">
+        <v>50</v>
+      </c>
+      <c r="N45">
+        <v>50</v>
+      </c>
+      <c r="O45">
+        <v>50</v>
+      </c>
+      <c r="P45">
+        <v>50</v>
+      </c>
+      <c r="Q45">
+        <v>50</v>
+      </c>
+      <c r="R45">
+        <v>50</v>
+      </c>
+      <c r="S45">
+        <v>50</v>
+      </c>
+      <c r="T45">
+        <v>50</v>
+      </c>
+      <c r="U45">
+        <v>50</v>
+      </c>
+      <c r="V45">
+        <v>50</v>
+      </c>
+      <c r="W45">
+        <v>52</v>
+      </c>
+      <c r="X45">
+        <v>52</v>
+      </c>
+      <c r="Y45">
+        <v>52</v>
+      </c>
+      <c r="Z45">
+        <v>52</v>
+      </c>
+      <c r="AA45">
+        <v>52</v>
+      </c>
+      <c r="AB45">
+        <v>52</v>
+      </c>
+      <c r="AC45">
+        <v>52</v>
+      </c>
+      <c r="AD45">
+        <v>52</v>
+      </c>
+      <c r="AE45">
+        <v>52</v>
+      </c>
+      <c r="AF45">
+        <v>52</v>
+      </c>
+      <c r="AG45">
+        <v>52</v>
+      </c>
+      <c r="AH45">
+        <v>52</v>
+      </c>
+      <c r="AI45">
+        <v>52</v>
+      </c>
+      <c r="AJ45">
+        <v>52</v>
+      </c>
+      <c r="AK45">
+        <v>52</v>
+      </c>
+      <c r="AL45">
+        <v>52</v>
+      </c>
+      <c r="AM45">
+        <v>52</v>
+      </c>
+      <c r="AN45">
+        <v>52</v>
+      </c>
+      <c r="AO45">
+        <v>52</v>
+      </c>
+      <c r="AP45">
+        <v>52</v>
+      </c>
+      <c r="AQ45">
+        <v>52</v>
+      </c>
+      <c r="AR45">
+        <v>51</v>
+      </c>
+      <c r="AS45">
+        <v>51</v>
+      </c>
+      <c r="AT45">
+        <v>51</v>
+      </c>
+      <c r="AU45">
+        <v>51</v>
+      </c>
+      <c r="AV45">
+        <v>51</v>
+      </c>
+      <c r="AW45">
+        <v>51</v>
+      </c>
+      <c r="AX45">
+        <v>51</v>
+      </c>
+      <c r="AY45">
+        <v>51</v>
+      </c>
+      <c r="AZ45">
+        <v>51</v>
+      </c>
+      <c r="BA45">
+        <v>51</v>
+      </c>
+      <c r="BB45">
+        <v>51</v>
+      </c>
+      <c r="BC45">
+        <v>51</v>
+      </c>
+      <c r="BD45">
+        <v>51</v>
+      </c>
+      <c r="BE45">
+        <v>51</v>
+      </c>
+      <c r="BF45">
+        <v>51</v>
+      </c>
+      <c r="BG45">
+        <v>51</v>
+      </c>
+      <c r="BH45">
+        <v>51</v>
+      </c>
+      <c r="BI45">
+        <v>51</v>
+      </c>
+      <c r="BJ45">
+        <v>51</v>
+      </c>
+      <c r="BK45">
+        <v>51</v>
+      </c>
+      <c r="BL45">
+        <v>51</v>
+      </c>
+      <c r="BM45">
+        <v>53</v>
+      </c>
+      <c r="BN45">
+        <v>53</v>
+      </c>
+      <c r="BO45">
+        <v>53</v>
+      </c>
+      <c r="BP45">
+        <v>53</v>
+      </c>
+      <c r="BQ45">
+        <v>53</v>
+      </c>
+      <c r="BR45">
+        <v>53</v>
+      </c>
+      <c r="BS45">
+        <v>53</v>
+      </c>
+      <c r="BT45">
+        <v>53</v>
+      </c>
+      <c r="BU45">
+        <v>53</v>
+      </c>
+      <c r="BV45">
+        <v>53</v>
+      </c>
+      <c r="BW45">
+        <v>53</v>
+      </c>
+      <c r="BX45">
+        <v>53</v>
+      </c>
+      <c r="BY45">
+        <v>53</v>
+      </c>
+      <c r="BZ45">
+        <v>53</v>
+      </c>
+      <c r="CA45">
+        <v>53</v>
+      </c>
+      <c r="CB45">
+        <v>53</v>
+      </c>
+      <c r="CC45">
+        <v>53</v>
+      </c>
+      <c r="CD45">
+        <v>53</v>
+      </c>
+      <c r="CE45">
+        <v>53</v>
+      </c>
+      <c r="CF45">
+        <v>53</v>
+      </c>
+      <c r="CG45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46">
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>50</v>
+      </c>
+      <c r="D46">
+        <v>50</v>
+      </c>
+      <c r="E46">
+        <v>50</v>
+      </c>
+      <c r="F46">
+        <v>50</v>
+      </c>
+      <c r="G46">
+        <v>50</v>
+      </c>
+      <c r="H46">
+        <v>50</v>
+      </c>
+      <c r="I46">
+        <v>50</v>
+      </c>
+      <c r="J46">
+        <v>50</v>
+      </c>
+      <c r="K46">
+        <v>50</v>
+      </c>
+      <c r="L46">
+        <v>50</v>
+      </c>
+      <c r="M46">
+        <v>50</v>
+      </c>
+      <c r="N46">
+        <v>50</v>
+      </c>
+      <c r="O46">
+        <v>50</v>
+      </c>
+      <c r="P46">
+        <v>50</v>
+      </c>
+      <c r="Q46">
+        <v>50</v>
+      </c>
+      <c r="R46">
+        <v>50</v>
+      </c>
+      <c r="S46">
+        <v>50</v>
+      </c>
+      <c r="T46">
+        <v>50</v>
+      </c>
+      <c r="U46">
+        <v>50</v>
+      </c>
+      <c r="V46">
+        <v>50</v>
+      </c>
+      <c r="W46">
+        <v>50</v>
+      </c>
+      <c r="X46">
+        <v>50</v>
+      </c>
+      <c r="Y46">
+        <v>50</v>
+      </c>
+      <c r="Z46">
+        <v>50</v>
+      </c>
+      <c r="AA46">
+        <v>50</v>
+      </c>
+      <c r="AB46">
+        <v>50</v>
+      </c>
+      <c r="AC46">
+        <v>50</v>
+      </c>
+      <c r="AD46">
+        <v>50</v>
+      </c>
+      <c r="AE46">
+        <v>50</v>
+      </c>
+      <c r="AF46">
+        <v>50</v>
+      </c>
+      <c r="AG46">
+        <v>50</v>
+      </c>
+      <c r="AH46">
+        <v>50</v>
+      </c>
+      <c r="AI46">
+        <v>50</v>
+      </c>
+      <c r="AJ46">
+        <v>50</v>
+      </c>
+      <c r="AK46">
+        <v>50</v>
+      </c>
+      <c r="AL46">
+        <v>50</v>
+      </c>
+      <c r="AM46">
+        <v>50</v>
+      </c>
+      <c r="AN46">
+        <v>50</v>
+      </c>
+      <c r="AO46">
+        <v>50</v>
+      </c>
+      <c r="AP46">
+        <v>50</v>
+      </c>
+      <c r="AQ46">
+        <v>50</v>
+      </c>
+      <c r="AR46">
+        <v>47</v>
+      </c>
+      <c r="AS46">
+        <v>47</v>
+      </c>
+      <c r="AT46">
+        <v>47</v>
+      </c>
+      <c r="AU46">
+        <v>47</v>
+      </c>
+      <c r="AV46">
+        <v>47</v>
+      </c>
+      <c r="AW46">
+        <v>47</v>
+      </c>
+      <c r="AX46">
+        <v>47</v>
+      </c>
+      <c r="AY46">
+        <v>47</v>
+      </c>
+      <c r="AZ46">
+        <v>47</v>
+      </c>
+      <c r="BA46">
+        <v>47</v>
+      </c>
+      <c r="BB46">
+        <v>47</v>
+      </c>
+      <c r="BC46">
+        <v>47</v>
+      </c>
+      <c r="BD46">
+        <v>47</v>
+      </c>
+      <c r="BE46">
+        <v>47</v>
+      </c>
+      <c r="BF46">
+        <v>47</v>
+      </c>
+      <c r="BG46">
+        <v>47</v>
+      </c>
+      <c r="BH46">
+        <v>47</v>
+      </c>
+      <c r="BI46">
+        <v>47</v>
+      </c>
+      <c r="BJ46">
+        <v>47</v>
+      </c>
+      <c r="BK46">
+        <v>47</v>
+      </c>
+      <c r="BL46">
+        <v>47</v>
+      </c>
+      <c r="BM46">
+        <v>49</v>
+      </c>
+      <c r="BN46">
+        <v>49</v>
+      </c>
+      <c r="BO46">
+        <v>49</v>
+      </c>
+      <c r="BP46">
+        <v>49</v>
+      </c>
+      <c r="BQ46">
+        <v>49</v>
+      </c>
+      <c r="BR46">
+        <v>49</v>
+      </c>
+      <c r="BS46">
+        <v>49</v>
+      </c>
+      <c r="BT46">
+        <v>49</v>
+      </c>
+      <c r="BU46">
+        <v>49</v>
+      </c>
+      <c r="BV46">
+        <v>49</v>
+      </c>
+      <c r="BW46">
+        <v>49</v>
+      </c>
+      <c r="BX46">
+        <v>49</v>
+      </c>
+      <c r="BY46">
+        <v>49</v>
+      </c>
+      <c r="BZ46">
+        <v>49</v>
+      </c>
+      <c r="CA46">
+        <v>49</v>
+      </c>
+      <c r="CB46">
+        <v>49</v>
+      </c>
+      <c r="CC46">
+        <v>49</v>
+      </c>
+      <c r="CD46">
+        <v>49</v>
+      </c>
+      <c r="CE46">
+        <v>49</v>
+      </c>
+      <c r="CF46">
+        <v>49</v>
+      </c>
+      <c r="CG46">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47">
+        <v>50</v>
+      </c>
+      <c r="C47">
+        <v>50</v>
+      </c>
+      <c r="D47">
+        <v>50</v>
+      </c>
+      <c r="E47">
+        <v>50</v>
+      </c>
+      <c r="F47">
+        <v>50</v>
+      </c>
+      <c r="G47">
+        <v>50</v>
+      </c>
+      <c r="H47">
+        <v>50</v>
+      </c>
+      <c r="I47">
+        <v>50</v>
+      </c>
+      <c r="J47">
+        <v>50</v>
+      </c>
+      <c r="K47">
+        <v>50</v>
+      </c>
+      <c r="L47">
+        <v>50</v>
+      </c>
+      <c r="M47">
+        <v>50</v>
+      </c>
+      <c r="N47">
+        <v>50</v>
+      </c>
+      <c r="O47">
+        <v>50</v>
+      </c>
+      <c r="P47">
+        <v>50</v>
+      </c>
+      <c r="Q47">
+        <v>50</v>
+      </c>
+      <c r="R47">
+        <v>50</v>
+      </c>
+      <c r="S47">
+        <v>50</v>
+      </c>
+      <c r="T47">
+        <v>50</v>
+      </c>
+      <c r="U47">
+        <v>50</v>
+      </c>
+      <c r="V47">
+        <v>50</v>
+      </c>
+      <c r="W47">
+        <v>50</v>
+      </c>
+      <c r="X47">
+        <v>50</v>
+      </c>
+      <c r="Y47">
+        <v>50</v>
+      </c>
+      <c r="Z47">
+        <v>50</v>
+      </c>
+      <c r="AA47">
+        <v>50</v>
+      </c>
+      <c r="AB47">
+        <v>50</v>
+      </c>
+      <c r="AC47">
+        <v>50</v>
+      </c>
+      <c r="AD47">
+        <v>50</v>
+      </c>
+      <c r="AE47">
+        <v>50</v>
+      </c>
+      <c r="AF47">
+        <v>50</v>
+      </c>
+      <c r="AG47">
+        <v>50</v>
+      </c>
+      <c r="AH47">
+        <v>50</v>
+      </c>
+      <c r="AI47">
+        <v>50</v>
+      </c>
+      <c r="AJ47">
+        <v>50</v>
+      </c>
+      <c r="AK47">
+        <v>50</v>
+      </c>
+      <c r="AL47">
+        <v>50</v>
+      </c>
+      <c r="AM47">
+        <v>50</v>
+      </c>
+      <c r="AN47">
+        <v>50</v>
+      </c>
+      <c r="AO47">
+        <v>50</v>
+      </c>
+      <c r="AP47">
+        <v>50</v>
+      </c>
+      <c r="AQ47">
+        <v>50</v>
+      </c>
+      <c r="AR47">
+        <v>47</v>
+      </c>
+      <c r="AS47">
+        <v>47</v>
+      </c>
+      <c r="AT47">
+        <v>47</v>
+      </c>
+      <c r="AU47">
+        <v>47</v>
+      </c>
+      <c r="AV47">
+        <v>47</v>
+      </c>
+      <c r="AW47">
+        <v>47</v>
+      </c>
+      <c r="AX47">
+        <v>47</v>
+      </c>
+      <c r="AY47">
+        <v>47</v>
+      </c>
+      <c r="AZ47">
+        <v>47</v>
+      </c>
+      <c r="BA47">
+        <v>47</v>
+      </c>
+      <c r="BB47">
+        <v>47</v>
+      </c>
+      <c r="BC47">
+        <v>47</v>
+      </c>
+      <c r="BD47">
+        <v>47</v>
+      </c>
+      <c r="BE47">
+        <v>47</v>
+      </c>
+      <c r="BF47">
+        <v>47</v>
+      </c>
+      <c r="BG47">
+        <v>47</v>
+      </c>
+      <c r="BH47">
+        <v>47</v>
+      </c>
+      <c r="BI47">
+        <v>47</v>
+      </c>
+      <c r="BJ47">
+        <v>47</v>
+      </c>
+      <c r="BK47">
+        <v>47</v>
+      </c>
+      <c r="BL47">
+        <v>47</v>
+      </c>
+      <c r="BM47">
+        <v>50</v>
+      </c>
+      <c r="BN47">
+        <v>50</v>
+      </c>
+      <c r="BO47">
+        <v>50</v>
+      </c>
+      <c r="BP47">
+        <v>50</v>
+      </c>
+      <c r="BQ47">
+        <v>50</v>
+      </c>
+      <c r="BR47">
+        <v>50</v>
+      </c>
+      <c r="BS47">
+        <v>50</v>
+      </c>
+      <c r="BT47">
+        <v>50</v>
+      </c>
+      <c r="BU47">
+        <v>50</v>
+      </c>
+      <c r="BV47">
+        <v>50</v>
+      </c>
+      <c r="BW47">
+        <v>50</v>
+      </c>
+      <c r="BX47">
+        <v>50</v>
+      </c>
+      <c r="BY47">
+        <v>50</v>
+      </c>
+      <c r="BZ47">
+        <v>50</v>
+      </c>
+      <c r="CA47">
+        <v>50</v>
+      </c>
+      <c r="CB47">
+        <v>50</v>
+      </c>
+      <c r="CC47">
+        <v>50</v>
+      </c>
+      <c r="CD47">
+        <v>50</v>
+      </c>
+      <c r="CE47">
+        <v>50</v>
+      </c>
+      <c r="CF47">
+        <v>50</v>
+      </c>
+      <c r="CG47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48">
+        <v>50</v>
+      </c>
+      <c r="C48">
+        <v>50</v>
+      </c>
+      <c r="D48">
+        <v>50</v>
+      </c>
+      <c r="E48">
+        <v>50</v>
+      </c>
+      <c r="F48">
+        <v>50</v>
+      </c>
+      <c r="G48">
+        <v>50</v>
+      </c>
+      <c r="H48">
+        <v>50</v>
+      </c>
+      <c r="I48">
+        <v>50</v>
+      </c>
+      <c r="J48">
+        <v>50</v>
+      </c>
+      <c r="K48">
+        <v>50</v>
+      </c>
+      <c r="L48">
+        <v>50</v>
+      </c>
+      <c r="M48">
+        <v>50</v>
+      </c>
+      <c r="N48">
+        <v>50</v>
+      </c>
+      <c r="O48">
+        <v>50</v>
+      </c>
+      <c r="P48">
+        <v>50</v>
+      </c>
+      <c r="Q48">
+        <v>50</v>
+      </c>
+      <c r="R48">
+        <v>50</v>
+      </c>
+      <c r="S48">
+        <v>50</v>
+      </c>
+      <c r="T48">
+        <v>50</v>
+      </c>
+      <c r="U48">
+        <v>50</v>
+      </c>
+      <c r="V48">
+        <v>50</v>
+      </c>
+      <c r="W48">
+        <v>50</v>
+      </c>
+      <c r="X48">
+        <v>50</v>
+      </c>
+      <c r="Y48">
+        <v>50</v>
+      </c>
+      <c r="Z48">
+        <v>50</v>
+      </c>
+      <c r="AA48">
+        <v>50</v>
+      </c>
+      <c r="AB48">
+        <v>50</v>
+      </c>
+      <c r="AC48">
+        <v>50</v>
+      </c>
+      <c r="AD48">
+        <v>50</v>
+      </c>
+      <c r="AE48">
+        <v>50</v>
+      </c>
+      <c r="AF48">
+        <v>50</v>
+      </c>
+      <c r="AG48">
+        <v>50</v>
+      </c>
+      <c r="AH48">
+        <v>50</v>
+      </c>
+      <c r="AI48">
+        <v>50</v>
+      </c>
+      <c r="AJ48">
+        <v>50</v>
+      </c>
+      <c r="AK48">
+        <v>50</v>
+      </c>
+      <c r="AL48">
+        <v>50</v>
+      </c>
+      <c r="AM48">
+        <v>50</v>
+      </c>
+      <c r="AN48">
+        <v>50</v>
+      </c>
+      <c r="AO48">
+        <v>50</v>
+      </c>
+      <c r="AP48">
+        <v>50</v>
+      </c>
+      <c r="AQ48">
+        <v>50</v>
+      </c>
+      <c r="AR48">
+        <v>48</v>
+      </c>
+      <c r="AS48">
+        <v>48</v>
+      </c>
+      <c r="AT48">
+        <v>48</v>
+      </c>
+      <c r="AU48">
+        <v>48</v>
+      </c>
+      <c r="AV48">
+        <v>48</v>
+      </c>
+      <c r="AW48">
+        <v>48</v>
+      </c>
+      <c r="AX48">
+        <v>48</v>
+      </c>
+      <c r="AY48">
+        <v>48</v>
+      </c>
+      <c r="AZ48">
+        <v>48</v>
+      </c>
+      <c r="BA48">
+        <v>48</v>
+      </c>
+      <c r="BB48">
+        <v>48</v>
+      </c>
+      <c r="BC48">
+        <v>48</v>
+      </c>
+      <c r="BD48">
+        <v>48</v>
+      </c>
+      <c r="BE48">
+        <v>48</v>
+      </c>
+      <c r="BF48">
+        <v>48</v>
+      </c>
+      <c r="BG48">
+        <v>48</v>
+      </c>
+      <c r="BH48">
+        <v>48</v>
+      </c>
+      <c r="BI48">
+        <v>48</v>
+      </c>
+      <c r="BJ48">
+        <v>48</v>
+      </c>
+      <c r="BK48">
+        <v>48</v>
+      </c>
+      <c r="BL48">
+        <v>48</v>
+      </c>
+      <c r="BM48">
+        <v>50</v>
+      </c>
+      <c r="BN48">
+        <v>50</v>
+      </c>
+      <c r="BO48">
+        <v>50</v>
+      </c>
+      <c r="BP48">
+        <v>50</v>
+      </c>
+      <c r="BQ48">
+        <v>50</v>
+      </c>
+      <c r="BR48">
+        <v>50</v>
+      </c>
+      <c r="BS48">
+        <v>50</v>
+      </c>
+      <c r="BT48">
+        <v>50</v>
+      </c>
+      <c r="BU48">
+        <v>50</v>
+      </c>
+      <c r="BV48">
+        <v>50</v>
+      </c>
+      <c r="BW48">
+        <v>50</v>
+      </c>
+      <c r="BX48">
+        <v>50</v>
+      </c>
+      <c r="BY48">
+        <v>50</v>
+      </c>
+      <c r="BZ48">
+        <v>50</v>
+      </c>
+      <c r="CA48">
+        <v>50</v>
+      </c>
+      <c r="CB48">
+        <v>50</v>
+      </c>
+      <c r="CC48">
+        <v>50</v>
+      </c>
+      <c r="CD48">
+        <v>50</v>
+      </c>
+      <c r="CE48">
+        <v>50</v>
+      </c>
+      <c r="CF48">
+        <v>50</v>
+      </c>
+      <c r="CG48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49">
+        <v>50</v>
+      </c>
+      <c r="C49">
+        <v>50</v>
+      </c>
+      <c r="D49">
+        <v>50</v>
+      </c>
+      <c r="E49">
+        <v>50</v>
+      </c>
+      <c r="F49">
+        <v>50</v>
+      </c>
+      <c r="G49">
+        <v>50</v>
+      </c>
+      <c r="H49">
+        <v>50</v>
+      </c>
+      <c r="I49">
+        <v>50</v>
+      </c>
+      <c r="J49">
+        <v>50</v>
+      </c>
+      <c r="K49">
+        <v>50</v>
+      </c>
+      <c r="L49">
+        <v>50</v>
+      </c>
+      <c r="M49">
+        <v>50</v>
+      </c>
+      <c r="N49">
+        <v>50</v>
+      </c>
+      <c r="O49">
+        <v>50</v>
+      </c>
+      <c r="P49">
+        <v>50</v>
+      </c>
+      <c r="Q49">
+        <v>50</v>
+      </c>
+      <c r="R49">
+        <v>50</v>
+      </c>
+      <c r="S49">
+        <v>50</v>
+      </c>
+      <c r="T49">
+        <v>50</v>
+      </c>
+      <c r="U49">
+        <v>50</v>
+      </c>
+      <c r="V49">
+        <v>50</v>
+      </c>
+      <c r="W49">
+        <v>50</v>
+      </c>
+      <c r="X49">
+        <v>50</v>
+      </c>
+      <c r="Y49">
+        <v>50</v>
+      </c>
+      <c r="Z49">
+        <v>50</v>
+      </c>
+      <c r="AA49">
+        <v>50</v>
+      </c>
+      <c r="AB49">
+        <v>50</v>
+      </c>
+      <c r="AC49">
+        <v>50</v>
+      </c>
+      <c r="AD49">
+        <v>50</v>
+      </c>
+      <c r="AE49">
+        <v>50</v>
+      </c>
+      <c r="AF49">
+        <v>50</v>
+      </c>
+      <c r="AG49">
+        <v>50</v>
+      </c>
+      <c r="AH49">
+        <v>50</v>
+      </c>
+      <c r="AI49">
+        <v>50</v>
+      </c>
+      <c r="AJ49">
+        <v>50</v>
+      </c>
+      <c r="AK49">
+        <v>50</v>
+      </c>
+      <c r="AL49">
+        <v>50</v>
+      </c>
+      <c r="AM49">
+        <v>50</v>
+      </c>
+      <c r="AN49">
+        <v>50</v>
+      </c>
+      <c r="AO49">
+        <v>50</v>
+      </c>
+      <c r="AP49">
+        <v>50</v>
+      </c>
+      <c r="AQ49">
+        <v>50</v>
+      </c>
+      <c r="AR49">
+        <v>48</v>
+      </c>
+      <c r="AS49">
+        <v>48</v>
+      </c>
+      <c r="AT49">
+        <v>48</v>
+      </c>
+      <c r="AU49">
+        <v>48</v>
+      </c>
+      <c r="AV49">
+        <v>48</v>
+      </c>
+      <c r="AW49">
+        <v>48</v>
+      </c>
+      <c r="AX49">
+        <v>48</v>
+      </c>
+      <c r="AY49">
+        <v>48</v>
+      </c>
+      <c r="AZ49">
+        <v>48</v>
+      </c>
+      <c r="BA49">
+        <v>48</v>
+      </c>
+      <c r="BB49">
+        <v>48</v>
+      </c>
+      <c r="BC49">
+        <v>48</v>
+      </c>
+      <c r="BD49">
+        <v>48</v>
+      </c>
+      <c r="BE49">
+        <v>48</v>
+      </c>
+      <c r="BF49">
+        <v>48</v>
+      </c>
+      <c r="BG49">
+        <v>48</v>
+      </c>
+      <c r="BH49">
+        <v>48</v>
+      </c>
+      <c r="BI49">
+        <v>48</v>
+      </c>
+      <c r="BJ49">
+        <v>48</v>
+      </c>
+      <c r="BK49">
+        <v>48</v>
+      </c>
+      <c r="BL49">
+        <v>48</v>
+      </c>
+      <c r="BM49">
+        <v>53</v>
+      </c>
+      <c r="BN49">
+        <v>53</v>
+      </c>
+      <c r="BO49">
+        <v>53</v>
+      </c>
+      <c r="BP49">
+        <v>53</v>
+      </c>
+      <c r="BQ49">
+        <v>53</v>
+      </c>
+      <c r="BR49">
+        <v>53</v>
+      </c>
+      <c r="BS49">
+        <v>53</v>
+      </c>
+      <c r="BT49">
+        <v>53</v>
+      </c>
+      <c r="BU49">
+        <v>53</v>
+      </c>
+      <c r="BV49">
+        <v>53</v>
+      </c>
+      <c r="BW49">
+        <v>53</v>
+      </c>
+      <c r="BX49">
+        <v>53</v>
+      </c>
+      <c r="BY49">
+        <v>53</v>
+      </c>
+      <c r="BZ49">
+        <v>53</v>
+      </c>
+      <c r="CA49">
+        <v>53</v>
+      </c>
+      <c r="CB49">
+        <v>53</v>
+      </c>
+      <c r="CC49">
+        <v>53</v>
+      </c>
+      <c r="CD49">
+        <v>53</v>
+      </c>
+      <c r="CE49">
+        <v>53</v>
+      </c>
+      <c r="CF49">
+        <v>53</v>
+      </c>
+      <c r="CG49">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
